--- a/development/features/nipa-consistent-FIM/results/12-2020/data/no-addons/nipa_xx_noaddons.xlsx
+++ b/development/features/nipa-consistent-FIM/results/12-2020/data/no-addons/nipa_xx_noaddons.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CT245"/>
+  <dimension ref="A1:CV245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,6 +855,16 @@
           <t>yptxb</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>fshare</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>yfptmd</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -993,7 +1003,7 @@
         <v>4.7</v>
       </c>
       <c r="AV2">
-        <v>2600</v>
+        <v>2.6</v>
       </c>
       <c r="AX2">
         <v>38.3</v>
@@ -1006,6 +1016,12 @@
       </c>
       <c r="BA2">
         <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>0.537240076</v>
+      </c>
+      <c r="CV2">
+        <v>2.68620038</v>
       </c>
     </row>
     <row r="3">
@@ -1145,7 +1161,7 @@
         <v>4.8</v>
       </c>
       <c r="AV3">
-        <v>3544</v>
+        <v>3.544</v>
       </c>
       <c r="AX3">
         <v>38.83333333333334</v>
@@ -1158,6 +1174,12 @@
       </c>
       <c r="BA3">
         <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>0.537240076</v>
+      </c>
+      <c r="CV3">
+        <v>2.8473724028</v>
       </c>
     </row>
     <row r="4">
@@ -1297,7 +1319,7 @@
         <v>4.7</v>
       </c>
       <c r="AV4">
-        <v>4164</v>
+        <v>4.164</v>
       </c>
       <c r="AX4">
         <v>39.23333333333334</v>
@@ -1310,6 +1332,12 @@
       </c>
       <c r="BA4">
         <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>0.537240076</v>
+      </c>
+      <c r="CV4">
+        <v>3.0085444256</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1477,7 @@
         <v>4.8</v>
       </c>
       <c r="AV5">
-        <v>4936</v>
+        <v>4.936</v>
       </c>
       <c r="AX5">
         <v>39.8</v>
@@ -1462,6 +1490,12 @@
       </c>
       <c r="BA5">
         <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>0.537240076</v>
+      </c>
+      <c r="CV5">
+        <v>3.1697164484</v>
       </c>
     </row>
     <row r="6">
@@ -1601,7 +1635,7 @@
         <v>4.8</v>
       </c>
       <c r="AV6">
-        <v>5224</v>
+        <v>5.224</v>
       </c>
       <c r="AX6">
         <v>40.16666666666667</v>
@@ -1614,6 +1648,12 @@
       </c>
       <c r="BA6">
         <v>-1</v>
+      </c>
+      <c r="CU6">
+        <v>0.569081404</v>
+      </c>
+      <c r="CV6">
+        <v>3.5283047048</v>
       </c>
     </row>
     <row r="7">
@@ -1753,7 +1793,7 @@
         <v>4.8</v>
       </c>
       <c r="AV7">
-        <v>5700</v>
+        <v>5.7</v>
       </c>
       <c r="AX7">
         <v>40.53333333333334</v>
@@ -1766,6 +1806,12 @@
       </c>
       <c r="BA7">
         <v>-1</v>
+      </c>
+      <c r="CU7">
+        <v>0.569081404</v>
+      </c>
+      <c r="CV7">
+        <v>3.7559372664</v>
       </c>
     </row>
     <row r="8">
@@ -1905,7 +1951,7 @@
         <v>4.5</v>
       </c>
       <c r="AV8">
-        <v>5684</v>
+        <v>5.684</v>
       </c>
       <c r="AX8">
         <v>40.96666666666667</v>
@@ -1918,6 +1964,12 @@
       </c>
       <c r="BA8">
         <v>-1</v>
+      </c>
+      <c r="CU8">
+        <v>0.569081404</v>
+      </c>
+      <c r="CV8">
+        <v>3.9266616876</v>
       </c>
     </row>
     <row r="9">
@@ -2057,7 +2109,7 @@
         <v>4.6</v>
       </c>
       <c r="AV9">
-        <v>5720</v>
+        <v>5.72</v>
       </c>
       <c r="AX9">
         <v>41.23333333333334</v>
@@ -2070,6 +2122,12 @@
       </c>
       <c r="BA9">
         <v>-1</v>
+      </c>
+      <c r="CU9">
+        <v>0.569081404</v>
+      </c>
+      <c r="CV9">
+        <v>4.154294249199999</v>
       </c>
     </row>
     <row r="10">
@@ -2209,7 +2267,7 @@
         <v>6.1</v>
       </c>
       <c r="AV10">
-        <v>5932</v>
+        <v>5.932</v>
       </c>
       <c r="AX10">
         <v>41.6</v>
@@ -2222,6 +2280,12 @@
       </c>
       <c r="BA10">
         <v>-1</v>
+      </c>
+      <c r="CU10">
+        <v>0.546908828</v>
+      </c>
+      <c r="CV10">
+        <v>4.265888858399999</v>
       </c>
     </row>
     <row r="11">
@@ -2361,7 +2425,7 @@
         <v>6.2</v>
       </c>
       <c r="AV11">
-        <v>6192</v>
+        <v>6.192</v>
       </c>
       <c r="AX11">
         <v>41.8</v>
@@ -2374,6 +2438,12 @@
       </c>
       <c r="BA11">
         <v>-1</v>
+      </c>
+      <c r="CU11">
+        <v>0.546908828</v>
+      </c>
+      <c r="CV11">
+        <v>4.375270624</v>
       </c>
     </row>
     <row r="12">
@@ -2513,7 +2583,7 @@
         <v>7.2</v>
       </c>
       <c r="AV12">
-        <v>5184</v>
+        <v>5.184</v>
       </c>
       <c r="AX12">
         <v>42.2</v>
@@ -2526,6 +2596,12 @@
       </c>
       <c r="BA12">
         <v>-1</v>
+      </c>
+      <c r="CU12">
+        <v>0.546908828</v>
+      </c>
+      <c r="CV12">
+        <v>4.703415920799999</v>
       </c>
     </row>
     <row r="13">
@@ -2665,7 +2741,7 @@
         <v>7.1</v>
       </c>
       <c r="AV13">
-        <v>4508</v>
+        <v>4.508</v>
       </c>
       <c r="AX13">
         <v>42.63333333333333</v>
@@ -2678,6 +2754,12 @@
       </c>
       <c r="BA13">
         <v>-1</v>
+      </c>
+      <c r="CU13">
+        <v>0.546908828</v>
+      </c>
+      <c r="CV13">
+        <v>4.648725037999999</v>
       </c>
     </row>
     <row r="14">
@@ -2817,7 +2899,7 @@
         <v>5.9</v>
       </c>
       <c r="AV14">
-        <v>4188</v>
+        <v>4.188</v>
       </c>
       <c r="AX14">
         <v>43.26666666666667</v>
@@ -2830,6 +2912,12 @@
       </c>
       <c r="BA14">
         <v>-1</v>
+      </c>
+      <c r="CU14">
+        <v>0.523506314</v>
+      </c>
+      <c r="CV14">
+        <v>4.711556826000001</v>
       </c>
     </row>
     <row r="15">
@@ -2969,7 +3057,7 @@
         <v>5.7</v>
       </c>
       <c r="AV15">
-        <v>4100</v>
+        <v>4.1</v>
       </c>
       <c r="AX15">
         <v>44.16666666666666</v>
@@ -2982,6 +3070,12 @@
       </c>
       <c r="BA15">
         <v>-1</v>
+      </c>
+      <c r="CU15">
+        <v>0.523506314</v>
+      </c>
+      <c r="CV15">
+        <v>5.0256606144</v>
       </c>
     </row>
     <row r="16">
@@ -3121,7 +3215,7 @@
         <v>4.7</v>
       </c>
       <c r="AV16">
-        <v>4112</v>
+        <v>4.112</v>
       </c>
       <c r="AX16">
         <v>45.06666666666666</v>
@@ -3134,6 +3228,12 @@
       </c>
       <c r="BA16">
         <v>-1</v>
+      </c>
+      <c r="CU16">
+        <v>0.523506314</v>
+      </c>
+      <c r="CV16">
+        <v>5.0780112458</v>
       </c>
     </row>
     <row r="17">
@@ -3273,7 +3373,7 @@
         <v>4.6</v>
       </c>
       <c r="AV17">
-        <v>4352</v>
+        <v>4.352</v>
       </c>
       <c r="AX17">
         <v>46.16666666666666</v>
@@ -3286,6 +3386,12 @@
       </c>
       <c r="BA17">
         <v>1</v>
+      </c>
+      <c r="CU17">
+        <v>0.523506314</v>
+      </c>
+      <c r="CV17">
+        <v>5.2874137714</v>
       </c>
     </row>
     <row r="18">
@@ -3425,7 +3531,7 @@
         <v>3.6</v>
       </c>
       <c r="AV18">
-        <v>5436</v>
+        <v>5.436</v>
       </c>
       <c r="AX18">
         <v>47.56666666666666</v>
@@ -3438,6 +3544,12 @@
       </c>
       <c r="BA18">
         <v>1</v>
+      </c>
+      <c r="CU18">
+        <v>0.566874379</v>
+      </c>
+      <c r="CV18">
+        <v>5.7821186658</v>
       </c>
     </row>
     <row r="19">
@@ -3577,7 +3689,7 @@
         <v>2.9</v>
       </c>
       <c r="AV19">
-        <v>6296</v>
+        <v>6.296</v>
       </c>
       <c r="AX19">
         <v>48.76666666666667</v>
@@ -3590,6 +3702,12 @@
       </c>
       <c r="BA19">
         <v>1</v>
+      </c>
+      <c r="CU19">
+        <v>0.566874379</v>
+      </c>
+      <c r="CV19">
+        <v>6.2923056069</v>
       </c>
     </row>
     <row r="20">
@@ -3729,7 +3847,7 @@
         <v>3.2</v>
       </c>
       <c r="AV20">
-        <v>6428</v>
+        <v>6.428</v>
       </c>
       <c r="AX20">
         <v>50.23333333333334</v>
@@ -3742,6 +3860,12 @@
       </c>
       <c r="BA20">
         <v>1</v>
+      </c>
+      <c r="CU20">
+        <v>0.566874379</v>
+      </c>
+      <c r="CV20">
+        <v>6.462367920600001</v>
       </c>
     </row>
     <row r="21">
@@ -3881,7 +4005,7 @@
         <v>3.6</v>
       </c>
       <c r="AV21">
-        <v>8120</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AX21">
         <v>51.76666666666667</v>
@@ -3894,6 +4018,12 @@
       </c>
       <c r="BA21">
         <v>1</v>
+      </c>
+      <c r="CU21">
+        <v>0.566874379</v>
+      </c>
+      <c r="CV21">
+        <v>6.802492548</v>
       </c>
     </row>
     <row r="22">
@@ -4033,7 +4163,7 @@
         <v>4.2</v>
       </c>
       <c r="AV22">
-        <v>13260</v>
+        <v>13.26</v>
       </c>
       <c r="AX22">
         <v>52.86666666666667</v>
@@ -4046,6 +4176,12 @@
       </c>
       <c r="BA22">
         <v>1</v>
+      </c>
+      <c r="CU22">
+        <v>0.55101889</v>
+      </c>
+      <c r="CV22">
+        <v>7.328551237000001</v>
       </c>
     </row>
     <row r="23">
@@ -4185,7 +4321,7 @@
         <v>4.3</v>
       </c>
       <c r="AV23">
-        <v>18048</v>
+        <v>18.048</v>
       </c>
       <c r="AX23">
         <v>53.5</v>
@@ -4198,6 +4334,12 @@
       </c>
       <c r="BA23">
         <v>-1</v>
+      </c>
+      <c r="CU23">
+        <v>0.55101889</v>
+      </c>
+      <c r="CV23">
+        <v>7.604060682000001</v>
       </c>
     </row>
     <row r="24">
@@ -4337,7 +4479,7 @@
         <v>4.6</v>
       </c>
       <c r="AV24">
-        <v>17984</v>
+        <v>17.984</v>
       </c>
       <c r="AX24">
         <v>54.56666666666666</v>
@@ -4350,6 +4492,12 @@
       </c>
       <c r="BA24">
         <v>-1</v>
+      </c>
+      <c r="CU24">
+        <v>0.55101889</v>
+      </c>
+      <c r="CV24">
+        <v>7.604060682000001</v>
       </c>
     </row>
     <row r="25">
@@ -4489,7 +4637,7 @@
         <v>4.9</v>
       </c>
       <c r="AV25">
-        <v>16900</v>
+        <v>16.9</v>
       </c>
       <c r="AX25">
         <v>55.56666666666667</v>
@@ -4502,6 +4650,12 @@
       </c>
       <c r="BA25">
         <v>-1</v>
+      </c>
+      <c r="CU25">
+        <v>0.55101889</v>
+      </c>
+      <c r="CV25">
+        <v>8.044875794000001</v>
       </c>
     </row>
     <row r="26">
@@ -4641,7 +4795,7 @@
         <v>5.1</v>
       </c>
       <c r="AV26">
-        <v>15616</v>
+        <v>15.616</v>
       </c>
       <c r="AX26">
         <v>56.23333333333333</v>
@@ -4654,6 +4808,12 @@
       </c>
       <c r="BA26">
         <v>-1</v>
+      </c>
+      <c r="CU26">
+        <v>0.602646826</v>
+      </c>
+      <c r="CV26">
+        <v>9.1602317552</v>
       </c>
     </row>
     <row r="27">
@@ -4793,7 +4953,7 @@
         <v>4.8</v>
       </c>
       <c r="AV27">
-        <v>14396</v>
+        <v>14.396</v>
       </c>
       <c r="AX27">
         <v>56.73333333333333</v>
@@ -4806,6 +4966,12 @@
       </c>
       <c r="BA27">
         <v>-1</v>
+      </c>
+      <c r="CU27">
+        <v>0.602646826</v>
+      </c>
+      <c r="CV27">
+        <v>8.979437707399999</v>
       </c>
     </row>
     <row r="28">
@@ -4945,7 +5111,7 @@
         <v>5.1</v>
       </c>
       <c r="AV28">
-        <v>13580</v>
+        <v>13.58</v>
       </c>
       <c r="AX28">
         <v>57.6</v>
@@ -4958,6 +5124,12 @@
       </c>
       <c r="BA28">
         <v>-1</v>
+      </c>
+      <c r="CU28">
+        <v>0.602646826</v>
+      </c>
+      <c r="CV28">
+        <v>9.5820845334</v>
       </c>
     </row>
     <row r="29">
@@ -5097,7 +5269,7 @@
         <v>5.5</v>
       </c>
       <c r="AV29">
-        <v>13528</v>
+        <v>13.528</v>
       </c>
       <c r="AX29">
         <v>58.43333333333334</v>
@@ -5110,6 +5282,12 @@
       </c>
       <c r="BA29">
         <v>-1</v>
+      </c>
+      <c r="CU29">
+        <v>0.602646826</v>
+      </c>
+      <c r="CV29">
+        <v>9.5820845334</v>
       </c>
     </row>
     <row r="30">
@@ -5249,7 +5427,7 @@
         <v>5.8</v>
       </c>
       <c r="AV30">
-        <v>13396</v>
+        <v>13.396</v>
       </c>
       <c r="AX30">
         <v>59.53333333333333</v>
@@ -5262,6 +5440,12 @@
       </c>
       <c r="BA30">
         <v>-1</v>
+      </c>
+      <c r="CU30">
+        <v>0.566651397</v>
+      </c>
+      <c r="CV30">
+        <v>9.1797526314</v>
       </c>
     </row>
     <row r="31">
@@ -5401,7 +5585,7 @@
         <v>5.9</v>
       </c>
       <c r="AV31">
-        <v>11776</v>
+        <v>11.776</v>
       </c>
       <c r="AX31">
         <v>60.6</v>
@@ -5414,6 +5598,12 @@
       </c>
       <c r="BA31">
         <v>-1</v>
+      </c>
+      <c r="CU31">
+        <v>0.566651397</v>
+      </c>
+      <c r="CV31">
+        <v>9.9163994475</v>
       </c>
     </row>
     <row r="32">
@@ -5553,7 +5743,7 @@
         <v>6.4</v>
       </c>
       <c r="AV32">
-        <v>10436</v>
+        <v>10.436</v>
       </c>
       <c r="AX32">
         <v>61.43333333333334</v>
@@ -5566,6 +5756,12 @@
       </c>
       <c r="BA32">
         <v>-1</v>
+      </c>
+      <c r="CU32">
+        <v>0.566651397</v>
+      </c>
+      <c r="CV32">
+        <v>9.4630783299</v>
       </c>
     </row>
     <row r="33">
@@ -5705,7 +5901,7 @@
         <v>10.3</v>
       </c>
       <c r="AV33">
-        <v>10524</v>
+        <v>10.524</v>
       </c>
       <c r="AX33">
         <v>62.26666666666666</v>
@@ -5718,6 +5914,12 @@
       </c>
       <c r="BA33">
         <v>-1</v>
+      </c>
+      <c r="CU33">
+        <v>0.566651397</v>
+      </c>
+      <c r="CV33">
+        <v>9.349748050500001</v>
       </c>
     </row>
     <row r="34">
@@ -5857,7 +6059,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AV34">
-        <v>9580</v>
+        <v>9.58</v>
       </c>
       <c r="AX34">
         <v>63.36666666666667</v>
@@ -5870,6 +6072,12 @@
       </c>
       <c r="BA34">
         <v>-1</v>
+      </c>
+      <c r="CU34">
+        <v>0.560955561</v>
+      </c>
+      <c r="CV34">
+        <v>9.8167223175</v>
       </c>
     </row>
     <row r="35">
@@ -6009,7 +6217,7 @@
         <v>8.4</v>
       </c>
       <c r="AV35">
-        <v>8584</v>
+        <v>8.584</v>
       </c>
       <c r="AX35">
         <v>64.76666666666667</v>
@@ -6022,6 +6230,12 @@
       </c>
       <c r="BA35">
         <v>-1</v>
+      </c>
+      <c r="CU35">
+        <v>0.560955561</v>
+      </c>
+      <c r="CV35">
+        <v>10.4337734346</v>
       </c>
     </row>
     <row r="36">
@@ -6161,7 +6375,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AV36">
-        <v>8376</v>
+        <v>8.375999999999999</v>
       </c>
       <c r="AX36">
         <v>66.23333333333333</v>
@@ -6174,6 +6388,12 @@
       </c>
       <c r="BA36">
         <v>-1</v>
+      </c>
+      <c r="CU36">
+        <v>0.560955561</v>
+      </c>
+      <c r="CV36">
+        <v>10.6020601029</v>
       </c>
     </row>
     <row r="37">
@@ -6313,7 +6533,7 @@
         <v>10.4</v>
       </c>
       <c r="AV37">
-        <v>7908</v>
+        <v>7.908</v>
       </c>
       <c r="AX37">
         <v>67.83333333333333</v>
@@ -6326,6 +6546,12 @@
       </c>
       <c r="BA37">
         <v>-1</v>
+      </c>
+      <c r="CU37">
+        <v>0.560955561</v>
+      </c>
+      <c r="CV37">
+        <v>10.9386334395</v>
       </c>
     </row>
     <row r="38">
@@ -6465,7 +6691,7 @@
         <v>8.4</v>
       </c>
       <c r="AV38">
-        <v>8788</v>
+        <v>8.788</v>
       </c>
       <c r="AX38">
         <v>69.56666666666666</v>
@@ -6478,6 +6704,12 @@
       </c>
       <c r="BA38">
         <v>-1</v>
+      </c>
+      <c r="CU38">
+        <v>0.568914562</v>
+      </c>
+      <c r="CV38">
+        <v>11.37829124</v>
       </c>
     </row>
     <row r="39">
@@ -6617,7 +6849,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV39">
-        <v>8628</v>
+        <v>8.628</v>
       </c>
       <c r="AX39">
         <v>71.89999999999999</v>
@@ -6630,6 +6862,12 @@
       </c>
       <c r="BA39">
         <v>-1</v>
+      </c>
+      <c r="CU39">
+        <v>0.568914562</v>
+      </c>
+      <c r="CV39">
+        <v>11.8334228896</v>
       </c>
     </row>
     <row r="40">
@@ -6769,7 +7007,7 @@
         <v>8.1</v>
       </c>
       <c r="AV40">
-        <v>9052</v>
+        <v>9.052</v>
       </c>
       <c r="AX40">
         <v>74.23333333333333</v>
@@ -6782,6 +7020,12 @@
       </c>
       <c r="BA40">
         <v>-1</v>
+      </c>
+      <c r="CU40">
+        <v>0.568914562</v>
+      </c>
+      <c r="CV40">
+        <v>12.0040972582</v>
       </c>
     </row>
     <row r="41">
@@ -6921,7 +7165,7 @@
         <v>8.9</v>
       </c>
       <c r="AV41">
-        <v>9932</v>
+        <v>9.932</v>
       </c>
       <c r="AX41">
         <v>76.5</v>
@@ -6934,6 +7178,12 @@
       </c>
       <c r="BA41">
         <v>-1</v>
+      </c>
+      <c r="CU41">
+        <v>0.568914562</v>
+      </c>
+      <c r="CV41">
+        <v>12.7436861888</v>
       </c>
     </row>
     <row r="42">
@@ -7073,7 +7323,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV42">
-        <v>11304</v>
+        <v>11.304</v>
       </c>
       <c r="AX42">
         <v>79.5</v>
@@ -7086,6 +7336,12 @@
       </c>
       <c r="BA42">
         <v>1</v>
+      </c>
+      <c r="CU42">
+        <v>0.55781346</v>
+      </c>
+      <c r="CV42">
+        <v>13.052834964</v>
       </c>
     </row>
     <row r="43">
@@ -7225,7 +7481,7 @@
         <v>9.6</v>
       </c>
       <c r="AV43">
-        <v>15040</v>
+        <v>15.04</v>
       </c>
       <c r="AX43">
         <v>82.2</v>
@@ -7238,6 +7494,12 @@
       </c>
       <c r="BA43">
         <v>1</v>
+      </c>
+      <c r="CU43">
+        <v>0.55781346</v>
+      </c>
+      <c r="CV43">
+        <v>12.383458812</v>
       </c>
     </row>
     <row r="44">
@@ -7377,7 +7639,7 @@
         <v>10.1</v>
       </c>
       <c r="AV44">
-        <v>18064</v>
+        <v>18.064</v>
       </c>
       <c r="AX44">
         <v>83.73333333333333</v>
@@ -7390,6 +7652,12 @@
       </c>
       <c r="BA44">
         <v>1</v>
+      </c>
+      <c r="CU44">
+        <v>0.55781346</v>
+      </c>
+      <c r="CV44">
+        <v>13.499085732</v>
       </c>
     </row>
     <row r="45">
@@ -7529,7 +7797,7 @@
         <v>10.3</v>
       </c>
       <c r="AV45">
-        <v>16916</v>
+        <v>16.916</v>
       </c>
       <c r="AX45">
         <v>86.16666666666667</v>
@@ -7542,6 +7810,12 @@
       </c>
       <c r="BA45">
         <v>-1</v>
+      </c>
+      <c r="CU45">
+        <v>0.55781346</v>
+      </c>
+      <c r="CV45">
+        <v>14.280024576</v>
       </c>
     </row>
     <row r="46">
@@ -7681,7 +7955,7 @@
         <v>10.6</v>
       </c>
       <c r="AV46">
-        <v>15560</v>
+        <v>15.56</v>
       </c>
       <c r="AX46">
         <v>88.46666666666665</v>
@@ -7694,6 +7968,12 @@
       </c>
       <c r="BA46">
         <v>-1</v>
+      </c>
+      <c r="CU46">
+        <v>0.557692942</v>
+      </c>
+      <c r="CV46">
+        <v>14.778862963</v>
       </c>
     </row>
     <row r="47">
@@ -7833,7 +8113,7 @@
         <v>10.7</v>
       </c>
       <c r="AV47">
-        <v>14648</v>
+        <v>14.648</v>
       </c>
       <c r="AX47">
         <v>90.23333333333335</v>
@@ -7846,6 +8126,12 @@
       </c>
       <c r="BA47">
         <v>-1</v>
+      </c>
+      <c r="CU47">
+        <v>0.557692942</v>
+      </c>
+      <c r="CV47">
+        <v>15.6711716702</v>
       </c>
     </row>
     <row r="48">
@@ -7985,7 +8271,7 @@
         <v>11.1</v>
       </c>
       <c r="AV48">
-        <v>14212</v>
+        <v>14.212</v>
       </c>
       <c r="AX48">
         <v>92.73333333333333</v>
@@ -7998,6 +8284,12 @@
       </c>
       <c r="BA48">
         <v>1</v>
+      </c>
+      <c r="CU48">
+        <v>0.557692942</v>
+      </c>
+      <c r="CV48">
+        <v>15.7827102586</v>
       </c>
     </row>
     <row r="49">
@@ -8137,7 +8429,7 @@
         <v>13.5</v>
       </c>
       <c r="AV49">
-        <v>15928</v>
+        <v>15.928</v>
       </c>
       <c r="AX49">
         <v>94.16666666666667</v>
@@ -8150,6 +8442,12 @@
       </c>
       <c r="BA49">
         <v>1</v>
+      </c>
+      <c r="CU49">
+        <v>0.557692942</v>
+      </c>
+      <c r="CV49">
+        <v>15.615402376</v>
       </c>
     </row>
     <row r="50">
@@ -8289,7 +8587,7 @@
         <v>14</v>
       </c>
       <c r="AV50">
-        <v>18472</v>
+        <v>18.472</v>
       </c>
       <c r="AX50">
         <v>94.96666666666665</v>
@@ -8302,6 +8600,12 @@
       </c>
       <c r="BA50">
         <v>1</v>
+      </c>
+      <c r="CU50">
+        <v>0.557402143</v>
+      </c>
+      <c r="CV50">
+        <v>16.0531817184</v>
       </c>
     </row>
     <row r="51">
@@ -8441,7 +8745,7 @@
         <v>13.6</v>
       </c>
       <c r="AV51">
-        <v>23188</v>
+        <v>23.188</v>
       </c>
       <c r="AX51">
         <v>96.23333333333333</v>
@@ -8454,6 +8758,12 @@
       </c>
       <c r="BA51">
         <v>1</v>
+      </c>
+      <c r="CU51">
+        <v>0.557402143</v>
+      </c>
+      <c r="CV51">
+        <v>16.8335447186</v>
       </c>
     </row>
     <row r="52">
@@ -8593,7 +8903,7 @@
         <v>13</v>
       </c>
       <c r="AV52">
-        <v>25120</v>
+        <v>25.12</v>
       </c>
       <c r="AX52">
         <v>98</v>
@@ -8606,6 +8916,12 @@
       </c>
       <c r="BA52">
         <v>1</v>
+      </c>
+      <c r="CU52">
+        <v>0.557402143</v>
+      </c>
+      <c r="CV52">
+        <v>17.1679860044</v>
       </c>
     </row>
     <row r="53">
@@ -8745,7 +9061,7 @@
         <v>19.4</v>
       </c>
       <c r="AV53">
-        <v>26724</v>
+        <v>26.724</v>
       </c>
       <c r="AX53">
         <v>98.33333333333333</v>
@@ -8758,6 +9074,12 @@
       </c>
       <c r="BA53">
         <v>1</v>
+      </c>
+      <c r="CU53">
+        <v>0.557402143</v>
+      </c>
+      <c r="CV53">
+        <v>17.1679860044</v>
       </c>
     </row>
     <row r="54">
@@ -8897,7 +9219,7 @@
         <v>19.9</v>
       </c>
       <c r="AV54">
-        <v>24276</v>
+        <v>24.276</v>
       </c>
       <c r="AX54">
         <v>98.3</v>
@@ -8910,6 +9232,12 @@
       </c>
       <c r="BA54">
         <v>-1</v>
+      </c>
+      <c r="CU54">
+        <v>0.555407475</v>
+      </c>
+      <c r="CV54">
+        <v>18.43952817</v>
       </c>
     </row>
     <row r="55">
@@ -9049,7 +9377,7 @@
         <v>21.6</v>
       </c>
       <c r="AV55">
-        <v>23528</v>
+        <v>23.528</v>
       </c>
       <c r="AX55">
         <v>99.43333333333334</v>
@@ -9062,6 +9390,12 @@
       </c>
       <c r="BA55">
         <v>-1</v>
+      </c>
+      <c r="CU55">
+        <v>0.555407475</v>
+      </c>
+      <c r="CV55">
+        <v>18.550609665</v>
       </c>
     </row>
     <row r="56">
@@ -9201,7 +9535,7 @@
         <v>22.2</v>
       </c>
       <c r="AV56">
-        <v>17744</v>
+        <v>17.744</v>
       </c>
       <c r="AX56">
         <v>100.4</v>
@@ -9214,6 +9548,12 @@
       </c>
       <c r="BA56">
         <v>-1</v>
+      </c>
+      <c r="CU56">
+        <v>0.555407475</v>
+      </c>
+      <c r="CV56">
+        <v>18.88385415</v>
       </c>
     </row>
     <row r="57">
@@ -9353,7 +9693,7 @@
         <v>21.5</v>
       </c>
       <c r="AV57">
-        <v>14992</v>
+        <v>14.992</v>
       </c>
       <c r="AX57">
         <v>101.1666666666667</v>
@@ -9366,6 +9706,12 @@
       </c>
       <c r="BA57">
         <v>-1</v>
+      </c>
+      <c r="CU57">
+        <v>0.555407475</v>
+      </c>
+      <c r="CV57">
+        <v>19.3837208775</v>
       </c>
     </row>
     <row r="58">
@@ -9505,7 +9851,7 @@
         <v>21.2</v>
       </c>
       <c r="AV58">
-        <v>13404</v>
+        <v>13.404</v>
       </c>
       <c r="AX58">
         <v>101.9333333333333</v>
@@ -9518,6 +9864,12 @@
       </c>
       <c r="BA58">
         <v>-1</v>
+      </c>
+      <c r="CU58">
+        <v>0.551774645</v>
+      </c>
+      <c r="CV58">
+        <v>19.6983548265</v>
       </c>
     </row>
     <row r="59">
@@ -9657,7 +10009,7 @@
         <v>21</v>
       </c>
       <c r="AV59">
-        <v>12936</v>
+        <v>12.936</v>
       </c>
       <c r="AX59">
         <v>102.4666666666667</v>
@@ -9670,6 +10022,12 @@
       </c>
       <c r="BA59">
         <v>-1</v>
+      </c>
+      <c r="CU59">
+        <v>0.551774645</v>
+      </c>
+      <c r="CV59">
+        <v>19.974242149</v>
       </c>
     </row>
     <row r="60">
@@ -9809,7 +10167,7 @@
         <v>20.9</v>
       </c>
       <c r="AV60">
-        <v>12784</v>
+        <v>12.784</v>
       </c>
       <c r="AX60">
         <v>103.9333333333333</v>
@@ -9822,6 +10180,12 @@
       </c>
       <c r="BA60">
         <v>-1</v>
+      </c>
+      <c r="CU60">
+        <v>0.551774645</v>
+      </c>
+      <c r="CV60">
+        <v>20.305306936</v>
       </c>
     </row>
     <row r="61">
@@ -9961,7 +10325,7 @@
         <v>21.2</v>
       </c>
       <c r="AV61">
-        <v>13536</v>
+        <v>13.536</v>
       </c>
       <c r="AX61">
         <v>104.8</v>
@@ -9974,6 +10338,12 @@
       </c>
       <c r="BA61">
         <v>-1</v>
+      </c>
+      <c r="CU61">
+        <v>0.551774645</v>
+      </c>
+      <c r="CV61">
+        <v>20.746726652</v>
       </c>
     </row>
     <row r="62">
@@ -10113,7 +10483,7 @@
         <v>21.1</v>
       </c>
       <c r="AV62">
-        <v>14404</v>
+        <v>14.404</v>
       </c>
       <c r="AX62">
         <v>105.6666666666667</v>
@@ -10126,6 +10496,12 @@
       </c>
       <c r="BA62">
         <v>-1</v>
+      </c>
+      <c r="CU62">
+        <v>0.5519212449999999</v>
+      </c>
+      <c r="CV62">
+        <v>21.193775808</v>
       </c>
     </row>
     <row r="63">
@@ -10265,7 +10641,7 @@
         <v>21</v>
       </c>
       <c r="AV63">
-        <v>14440</v>
+        <v>14.44</v>
       </c>
       <c r="AX63">
         <v>106.6333333333333</v>
@@ -10278,6 +10654,12 @@
       </c>
       <c r="BA63">
         <v>-1</v>
+      </c>
+      <c r="CU63">
+        <v>0.5519212449999999</v>
+      </c>
+      <c r="CV63">
+        <v>21.635312804</v>
       </c>
     </row>
     <row r="64">
@@ -10417,7 +10799,7 @@
         <v>21.3</v>
       </c>
       <c r="AV64">
-        <v>14516</v>
+        <v>14.516</v>
       </c>
       <c r="AX64">
         <v>107.1333333333333</v>
@@ -10430,6 +10812,12 @@
       </c>
       <c r="BA64">
         <v>-1</v>
+      </c>
+      <c r="CU64">
+        <v>0.5519212449999999</v>
+      </c>
+      <c r="CV64">
+        <v>22.1320419245</v>
       </c>
     </row>
     <row r="65">
@@ -10569,7 +10957,7 @@
         <v>22</v>
       </c>
       <c r="AV65">
-        <v>15088</v>
+        <v>15.088</v>
       </c>
       <c r="AX65">
         <v>108.2</v>
@@ -10582,6 +10970,12 @@
       </c>
       <c r="BA65">
         <v>-1</v>
+      </c>
+      <c r="CU65">
+        <v>0.5519212449999999</v>
+      </c>
+      <c r="CV65">
+        <v>22.6839631695</v>
       </c>
     </row>
     <row r="66">
@@ -10721,7 +11115,7 @@
         <v>23.1</v>
       </c>
       <c r="AV66">
-        <v>15120</v>
+        <v>15.12</v>
       </c>
       <c r="AX66">
         <v>108.6666666666667</v>
@@ -10734,6 +11128,12 @@
       </c>
       <c r="BA66">
         <v>-1</v>
+      </c>
+      <c r="CU66">
+        <v>0.55498755</v>
+      </c>
+      <c r="CV66">
+        <v>23.364975855</v>
       </c>
     </row>
     <row r="67">
@@ -10873,7 +11273,7 @@
         <v>24.2</v>
       </c>
       <c r="AV67">
-        <v>15848</v>
+        <v>15.848</v>
       </c>
       <c r="AX67">
         <v>107.9333333333333</v>
@@ -10886,6 +11286,12 @@
       </c>
       <c r="BA67">
         <v>-1</v>
+      </c>
+      <c r="CU67">
+        <v>0.55498755</v>
+      </c>
+      <c r="CV67">
+        <v>23.919963405</v>
       </c>
     </row>
     <row r="68">
@@ -11025,7 +11431,7 @@
         <v>25.5</v>
       </c>
       <c r="AV68">
-        <v>16448</v>
+        <v>16.448</v>
       </c>
       <c r="AX68">
         <v>108.5</v>
@@ -11038,6 +11444,12 @@
       </c>
       <c r="BA68">
         <v>-1</v>
+      </c>
+      <c r="CU68">
+        <v>0.55498755</v>
+      </c>
+      <c r="CV68">
+        <v>24.474950955</v>
       </c>
     </row>
     <row r="69">
@@ -11177,7 +11589,7 @@
         <v>26.8</v>
       </c>
       <c r="AV69">
-        <v>16408</v>
+        <v>16.408</v>
       </c>
       <c r="AX69">
         <v>109.2</v>
@@ -11190,6 +11602,12 @@
       </c>
       <c r="BA69">
         <v>-1</v>
+      </c>
+      <c r="CU69">
+        <v>0.55498755</v>
+      </c>
+      <c r="CV69">
+        <v>25.08543726</v>
       </c>
     </row>
     <row r="70">
@@ -11329,7 +11747,7 @@
         <v>28.3</v>
       </c>
       <c r="AV70">
-        <v>14996</v>
+        <v>14.996</v>
       </c>
       <c r="AX70">
         <v>110.6666666666667</v>
@@ -11342,6 +11760,12 @@
       </c>
       <c r="BA70">
         <v>-1</v>
+      </c>
+      <c r="CU70">
+        <v>0.553606548</v>
+      </c>
+      <c r="CV70">
+        <v>25.5766225176</v>
       </c>
     </row>
     <row r="71">
@@ -11481,7 +11905,7 @@
         <v>30.4</v>
       </c>
       <c r="AV71">
-        <v>14580</v>
+        <v>14.58</v>
       </c>
       <c r="AX71">
         <v>111.9666666666667</v>
@@ -11494,6 +11918,12 @@
       </c>
       <c r="BA71">
         <v>-1</v>
+      </c>
+      <c r="CU71">
+        <v>0.553606548</v>
+      </c>
+      <c r="CV71">
+        <v>26.1855897204</v>
       </c>
     </row>
     <row r="72">
@@ -11633,7 +12063,7 @@
         <v>31.3</v>
       </c>
       <c r="AV72">
-        <v>13992</v>
+        <v>13.992</v>
       </c>
       <c r="AX72">
         <v>113.1666666666667</v>
@@ -11646,6 +12076,12 @@
       </c>
       <c r="BA72">
         <v>-1</v>
+      </c>
+      <c r="CU72">
+        <v>0.553606548</v>
+      </c>
+      <c r="CV72">
+        <v>26.7945569232</v>
       </c>
     </row>
     <row r="73">
@@ -11785,7 +12221,7 @@
         <v>31.1</v>
       </c>
       <c r="AV73">
-        <v>13108</v>
+        <v>13.108</v>
       </c>
       <c r="AX73">
         <v>114.1666666666667</v>
@@ -11798,6 +12234,12 @@
       </c>
       <c r="BA73">
         <v>-1</v>
+      </c>
+      <c r="CU73">
+        <v>0.553606548</v>
+      </c>
+      <c r="CV73">
+        <v>27.3481634712</v>
       </c>
     </row>
     <row r="74">
@@ -11937,7 +12379,7 @@
         <v>30.4</v>
       </c>
       <c r="AV74">
-        <v>13496</v>
+        <v>13.496</v>
       </c>
       <c r="AX74">
         <v>114.9333333333333</v>
@@ -11950,6 +12392,12 @@
       </c>
       <c r="BA74">
         <v>-1</v>
+      </c>
+      <c r="CU74">
+        <v>0.562726943</v>
+      </c>
+      <c r="CV74">
+        <v>28.6428013987</v>
       </c>
     </row>
     <row r="75">
@@ -12089,7 +12537,7 @@
         <v>29.8</v>
       </c>
       <c r="AV75">
-        <v>12736</v>
+        <v>12.736</v>
       </c>
       <c r="AX75">
         <v>116.2</v>
@@ -12102,6 +12550,12 @@
       </c>
       <c r="BA75">
         <v>-1</v>
+      </c>
+      <c r="CU75">
+        <v>0.562726943</v>
+      </c>
+      <c r="CV75">
+        <v>29.3743464246</v>
       </c>
     </row>
     <row r="76">
@@ -12241,7 +12695,7 @@
         <v>29.2</v>
       </c>
       <c r="AV76">
-        <v>12776</v>
+        <v>12.776</v>
       </c>
       <c r="AX76">
         <v>117.7333333333333</v>
@@ -12254,6 +12708,12 @@
       </c>
       <c r="BA76">
         <v>-1</v>
+      </c>
+      <c r="CU76">
+        <v>0.562726943</v>
+      </c>
+      <c r="CV76">
+        <v>30.2184368391</v>
       </c>
     </row>
     <row r="77">
@@ -12393,7 +12853,7 @@
         <v>28.6</v>
       </c>
       <c r="AV77">
-        <v>12652</v>
+        <v>12.652</v>
       </c>
       <c r="AX77">
         <v>118.9333333333333</v>
@@ -12406,6 +12866,12 @@
       </c>
       <c r="BA77">
         <v>-1</v>
+      </c>
+      <c r="CU77">
+        <v>0.562726943</v>
+      </c>
+      <c r="CV77">
+        <v>31.1750726422</v>
       </c>
     </row>
     <row r="78">
@@ -12545,7 +13011,7 @@
         <v>28</v>
       </c>
       <c r="AV78">
-        <v>13160</v>
+        <v>13.16</v>
       </c>
       <c r="AX78">
         <v>120.3666666666667</v>
@@ -12558,6 +13024,12 @@
       </c>
       <c r="BA78">
         <v>-1</v>
+      </c>
+      <c r="CU78">
+        <v>0.56619641</v>
+      </c>
+      <c r="CV78">
+        <v>32.499673934</v>
       </c>
     </row>
     <row r="79">
@@ -12697,7 +13169,7 @@
         <v>27.4</v>
       </c>
       <c r="AV79">
-        <v>13316</v>
+        <v>13.316</v>
       </c>
       <c r="AX79">
         <v>122.4</v>
@@ -12710,6 +13182,12 @@
       </c>
       <c r="BA79">
         <v>-1</v>
+      </c>
+      <c r="CU79">
+        <v>0.56619641</v>
+      </c>
+      <c r="CV79">
+        <v>33.745306036</v>
       </c>
     </row>
     <row r="80">
@@ -12849,7 +13327,7 @@
         <v>27.1</v>
       </c>
       <c r="AV80">
-        <v>14220</v>
+        <v>14.22</v>
       </c>
       <c r="AX80">
         <v>123.2666666666667</v>
@@ -12862,6 +13340,12 @@
       </c>
       <c r="BA80">
         <v>-1</v>
+      </c>
+      <c r="CU80">
+        <v>0.56619641</v>
+      </c>
+      <c r="CV80">
+        <v>35.047557779</v>
       </c>
     </row>
     <row r="81">
@@ -13001,7 +13485,7 @@
         <v>27.3</v>
       </c>
       <c r="AV81">
-        <v>15380</v>
+        <v>15.38</v>
       </c>
       <c r="AX81">
         <v>124.4</v>
@@ -13014,6 +13498,12 @@
       </c>
       <c r="BA81">
         <v>-1</v>
+      </c>
+      <c r="CU81">
+        <v>0.56619641</v>
+      </c>
+      <c r="CV81">
+        <v>36.463048804</v>
       </c>
     </row>
     <row r="82">
@@ -13153,7 +13643,7 @@
         <v>27.1</v>
       </c>
       <c r="AV82">
-        <v>16048</v>
+        <v>16.048</v>
       </c>
       <c r="AX82">
         <v>126.5666666666667</v>
@@ -13166,6 +13656,12 @@
       </c>
       <c r="BA82">
         <v>-1</v>
+      </c>
+      <c r="CU82">
+        <v>0.578420059</v>
+      </c>
+      <c r="CV82">
+        <v>38.5227759294</v>
       </c>
     </row>
     <row r="83">
@@ -13305,7 +13801,7 @@
         <v>27</v>
       </c>
       <c r="AV83">
-        <v>16632</v>
+        <v>16.632</v>
       </c>
       <c r="AX83">
         <v>127.6666666666667</v>
@@ -13318,6 +13814,12 @@
       </c>
       <c r="BA83">
         <v>-1</v>
+      </c>
+      <c r="CU83">
+        <v>0.578420059</v>
+      </c>
+      <c r="CV83">
+        <v>40.6629301477</v>
       </c>
     </row>
     <row r="84">
@@ -13457,7 +13959,7 @@
         <v>26.9</v>
       </c>
       <c r="AV84">
-        <v>17728</v>
+        <v>17.728</v>
       </c>
       <c r="AX84">
         <v>129.8666666666667</v>
@@ -13470,6 +13972,12 @@
       </c>
       <c r="BA84">
         <v>1</v>
+      </c>
+      <c r="CU84">
+        <v>0.578420059</v>
+      </c>
+      <c r="CV84">
+        <v>43.3236624191</v>
       </c>
     </row>
     <row r="85">
@@ -13609,7 +14117,7 @@
         <v>27</v>
       </c>
       <c r="AV85">
-        <v>20448</v>
+        <v>20.448</v>
       </c>
       <c r="AX85">
         <v>132.1</v>
@@ -13622,6 +14130,12 @@
       </c>
       <c r="BA85">
         <v>1</v>
+      </c>
+      <c r="CU85">
+        <v>0.578420059</v>
+      </c>
+      <c r="CV85">
+        <v>46.67849876130001</v>
       </c>
     </row>
     <row r="86">
@@ -13761,7 +14275,7 @@
         <v>27.1</v>
       </c>
       <c r="AV86">
-        <v>23824</v>
+        <v>23.824</v>
       </c>
       <c r="AX86">
         <v>132.9333333333333</v>
@@ -13774,6 +14288,12 @@
       </c>
       <c r="BA86">
         <v>1</v>
+      </c>
+      <c r="CU86">
+        <v>0.609874371</v>
+      </c>
+      <c r="CV86">
+        <v>51.0464848527</v>
       </c>
     </row>
     <row r="87">
@@ -13913,7 +14433,7 @@
         <v>27.2</v>
       </c>
       <c r="AV87">
-        <v>26968</v>
+        <v>26.968</v>
       </c>
       <c r="AX87">
         <v>133.7333333333334</v>
@@ -13926,6 +14446,12 @@
       </c>
       <c r="BA87">
         <v>-1</v>
+      </c>
+      <c r="CU87">
+        <v>0.609874371</v>
+      </c>
+      <c r="CV87">
+        <v>56.77930394009999</v>
       </c>
     </row>
     <row r="88">
@@ -14065,7 +14591,7 @@
         <v>27.5</v>
       </c>
       <c r="AV88">
-        <v>25364</v>
+        <v>25.364</v>
       </c>
       <c r="AX88">
         <v>134.6333333333333</v>
@@ -14078,6 +14604,12 @@
       </c>
       <c r="BA88">
         <v>-1</v>
+      </c>
+      <c r="CU88">
+        <v>0.609874371</v>
+      </c>
+      <c r="CV88">
+        <v>60.0116381064</v>
       </c>
     </row>
     <row r="89">
@@ -14217,7 +14749,7 @@
         <v>28.1</v>
       </c>
       <c r="AV89">
-        <v>25508</v>
+        <v>25.508</v>
       </c>
       <c r="AX89">
         <v>135.7333333333333</v>
@@ -14230,6 +14762,12 @@
       </c>
       <c r="BA89">
         <v>-1</v>
+      </c>
+      <c r="CU89">
+        <v>0.609874371</v>
+      </c>
+      <c r="CV89">
+        <v>68.61086673749999</v>
       </c>
     </row>
     <row r="90">
@@ -14369,7 +14907,7 @@
         <v>28.6</v>
       </c>
       <c r="AV90">
-        <v>25104</v>
+        <v>25.104</v>
       </c>
       <c r="AX90">
         <v>136.5333333333333</v>
@@ -14382,6 +14920,12 @@
       </c>
       <c r="BA90">
         <v>-1</v>
+      </c>
+      <c r="CU90">
+        <v>0.634111623</v>
+      </c>
+      <c r="CV90">
+        <v>68.67428877090001</v>
       </c>
     </row>
     <row r="91">
@@ -14521,7 +15065,7 @@
         <v>29.2</v>
       </c>
       <c r="AV91">
-        <v>25416</v>
+        <v>25.416</v>
       </c>
       <c r="AX91">
         <v>137.5666666666667</v>
@@ -14534,6 +15078,12 @@
       </c>
       <c r="BA91">
         <v>-1</v>
+      </c>
+      <c r="CU91">
+        <v>0.634111623</v>
+      </c>
+      <c r="CV91">
+        <v>73.1764812942</v>
       </c>
     </row>
     <row r="92">
@@ -14673,7 +15223,7 @@
         <v>30.4</v>
       </c>
       <c r="AV92">
-        <v>25360</v>
+        <v>25.36</v>
       </c>
       <c r="AX92">
         <v>138.7</v>
@@ -14686,6 +15236,12 @@
       </c>
       <c r="BA92">
         <v>-1</v>
+      </c>
+      <c r="CU92">
+        <v>0.634111623</v>
+      </c>
+      <c r="CV92">
+        <v>76.47386173379999</v>
       </c>
     </row>
     <row r="93">
@@ -14825,7 +15381,7 @@
         <v>32.2</v>
       </c>
       <c r="AV93">
-        <v>23420</v>
+        <v>23.42</v>
       </c>
       <c r="AX93">
         <v>139.8</v>
@@ -14838,6 +15394,12 @@
       </c>
       <c r="BA93">
         <v>-1</v>
+      </c>
+      <c r="CU93">
+        <v>0.634111623</v>
+      </c>
+      <c r="CV93">
+        <v>76.60068405840001</v>
       </c>
     </row>
     <row r="94">
@@ -14983,7 +15545,7 @@
         <v>35.5</v>
       </c>
       <c r="AV94">
-        <v>20628</v>
+        <v>20.628</v>
       </c>
       <c r="AX94">
         <v>140.7666666666667</v>
@@ -14996,6 +15558,12 @@
       </c>
       <c r="BA94">
         <v>-1</v>
+      </c>
+      <c r="CU94">
+        <v>0.628905069</v>
+      </c>
+      <c r="CV94">
+        <v>73.88800000000001</v>
       </c>
     </row>
     <row r="95">
@@ -15141,7 +15709,7 @@
         <v>37.6</v>
       </c>
       <c r="AV95">
-        <v>21808</v>
+        <v>21.808</v>
       </c>
       <c r="AX95">
         <v>141.7333333333334</v>
@@ -15154,6 +15722,12 @@
       </c>
       <c r="BA95">
         <v>-1</v>
+      </c>
+      <c r="CU95">
+        <v>0.628905069</v>
+      </c>
+      <c r="CV95">
+        <v>76.036</v>
       </c>
     </row>
     <row r="96">
@@ -15299,7 +15873,7 @@
         <v>37.7</v>
       </c>
       <c r="AV96">
-        <v>21780</v>
+        <v>21.78</v>
       </c>
       <c r="AX96">
         <v>142.3333333333333</v>
@@ -15312,6 +15886,12 @@
       </c>
       <c r="BA96">
         <v>-1</v>
+      </c>
+      <c r="CU96">
+        <v>0.628905069</v>
+      </c>
+      <c r="CV96">
+        <v>80.604</v>
       </c>
     </row>
     <row r="97">
@@ -15457,7 +16037,7 @@
         <v>36</v>
       </c>
       <c r="AV97">
-        <v>22140</v>
+        <v>22.14</v>
       </c>
       <c r="AX97">
         <v>143.4333333333333</v>
@@ -15470,6 +16050,12 @@
       </c>
       <c r="BA97">
         <v>-1</v>
+      </c>
+      <c r="CU97">
+        <v>0.628905069</v>
+      </c>
+      <c r="CV97">
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -15615,7 +16201,7 @@
         <v>33.6</v>
       </c>
       <c r="AV98">
-        <v>21808</v>
+        <v>21.808</v>
       </c>
       <c r="AX98">
         <v>144.0333333333333</v>
@@ -15628,6 +16214,12 @@
       </c>
       <c r="BA98">
         <v>-1</v>
+      </c>
+      <c r="CU98">
+        <v>0.603002663</v>
+      </c>
+      <c r="CV98">
+        <v>78.94799999999999</v>
       </c>
     </row>
     <row r="99">
@@ -15773,7 +16365,7 @@
         <v>32.4</v>
       </c>
       <c r="AV99">
-        <v>22096</v>
+        <v>22.096</v>
       </c>
       <c r="AX99">
         <v>144.8666666666667</v>
@@ -15786,6 +16378,12 @@
       </c>
       <c r="BA99">
         <v>-1</v>
+      </c>
+      <c r="CU99">
+        <v>0.603002663</v>
+      </c>
+      <c r="CV99">
+        <v>81.77200000000001</v>
       </c>
     </row>
     <row r="100">
@@ -15931,7 +16529,7 @@
         <v>31.9</v>
       </c>
       <c r="AV100">
-        <v>21264</v>
+        <v>21.264</v>
       </c>
       <c r="AX100">
         <v>146.4</v>
@@ -15944,6 +16542,12 @@
       </c>
       <c r="BA100">
         <v>-1</v>
+      </c>
+      <c r="CU100">
+        <v>0.603002663</v>
+      </c>
+      <c r="CV100">
+        <v>82.892</v>
       </c>
     </row>
     <row r="101">
@@ -16089,7 +16693,7 @@
         <v>32.2</v>
       </c>
       <c r="AV101">
-        <v>20560</v>
+        <v>20.56</v>
       </c>
       <c r="AX101">
         <v>147.2666666666667</v>
@@ -16102,6 +16706,12 @@
       </c>
       <c r="BA101">
         <v>-1</v>
+      </c>
+      <c r="CU101">
+        <v>0.603002663</v>
+      </c>
+      <c r="CV101">
+        <v>85.54000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -16247,7 +16857,7 @@
         <v>34</v>
       </c>
       <c r="AV102">
-        <v>20144</v>
+        <v>20.144</v>
       </c>
       <c r="AX102">
         <v>148.3333333333333</v>
@@ -16260,6 +16870,12 @@
       </c>
       <c r="BA102">
         <v>-1</v>
+      </c>
+      <c r="CU102">
+        <v>0.593288785</v>
+      </c>
+      <c r="CV102">
+        <v>90.524</v>
       </c>
     </row>
     <row r="103">
@@ -16405,7 +17021,7 @@
         <v>34.6</v>
       </c>
       <c r="AV103">
-        <v>20856</v>
+        <v>20.856</v>
       </c>
       <c r="AX103">
         <v>149.5</v>
@@ -16418,6 +17034,12 @@
       </c>
       <c r="BA103">
         <v>-1</v>
+      </c>
+      <c r="CU103">
+        <v>0.593288785</v>
+      </c>
+      <c r="CV103">
+        <v>90.54000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -16563,7 +17185,7 @@
         <v>35.1</v>
       </c>
       <c r="AV104">
-        <v>21284</v>
+        <v>21.284</v>
       </c>
       <c r="AX104">
         <v>150.1666666666667</v>
@@ -16576,6 +17198,12 @@
       </c>
       <c r="BA104">
         <v>-1</v>
+      </c>
+      <c r="CU104">
+        <v>0.593288785</v>
+      </c>
+      <c r="CV104">
+        <v>89.28</v>
       </c>
     </row>
     <row r="105">
@@ -16721,7 +17349,7 @@
         <v>35.5</v>
       </c>
       <c r="AV105">
-        <v>21768</v>
+        <v>21.768</v>
       </c>
       <c r="AX105">
         <v>151</v>
@@ -16734,6 +17362,12 @@
       </c>
       <c r="BA105">
         <v>-1</v>
+      </c>
+      <c r="CU105">
+        <v>0.593288785</v>
+      </c>
+      <c r="CV105">
+        <v>87.568</v>
       </c>
     </row>
     <row r="106">
@@ -16879,7 +17513,7 @@
         <v>35.5</v>
       </c>
       <c r="AV106">
-        <v>22276</v>
+        <v>22.276</v>
       </c>
       <c r="AX106">
         <v>152.4</v>
@@ -16892,6 +17526,12 @@
       </c>
       <c r="BA106">
         <v>-1</v>
+      </c>
+      <c r="CU106">
+        <v>0.598665966</v>
+      </c>
+      <c r="CV106">
+        <v>88.77200000000001</v>
       </c>
     </row>
     <row r="107">
@@ -17037,7 +17677,7 @@
         <v>35.4</v>
       </c>
       <c r="AV107">
-        <v>22048</v>
+        <v>22.048</v>
       </c>
       <c r="AX107">
         <v>153.7333333333334</v>
@@ -17050,6 +17690,12 @@
       </c>
       <c r="BA107">
         <v>-1</v>
+      </c>
+      <c r="CU107">
+        <v>0.598665966</v>
+      </c>
+      <c r="CV107">
+        <v>96.376</v>
       </c>
     </row>
     <row r="108">
@@ -17195,7 +17841,7 @@
         <v>35.2</v>
       </c>
       <c r="AV108">
-        <v>21004</v>
+        <v>21.004</v>
       </c>
       <c r="AX108">
         <v>154.5666666666667</v>
@@ -17208,6 +17854,12 @@
       </c>
       <c r="BA108">
         <v>-1</v>
+      </c>
+      <c r="CU108">
+        <v>0.598665966</v>
+      </c>
+      <c r="CV108">
+        <v>94.872</v>
       </c>
     </row>
     <row r="109">
@@ -17353,7 +18005,7 @@
         <v>34.8</v>
       </c>
       <c r="AV109">
-        <v>21088</v>
+        <v>21.088</v>
       </c>
       <c r="AX109">
         <v>155.8666666666667</v>
@@ -17366,6 +18018,12 @@
       </c>
       <c r="BA109">
         <v>-1</v>
+      </c>
+      <c r="CU109">
+        <v>0.598665966</v>
+      </c>
+      <c r="CV109">
+        <v>93.892</v>
       </c>
     </row>
     <row r="110">
@@ -17511,7 +18169,7 @@
         <v>34.4</v>
       </c>
       <c r="AV110">
-        <v>20308</v>
+        <v>20.308</v>
       </c>
       <c r="AX110">
         <v>156.8</v>
@@ -17524,6 +18182,12 @@
       </c>
       <c r="BA110">
         <v>-1</v>
+      </c>
+      <c r="CU110">
+        <v>0.590330061</v>
+      </c>
+      <c r="CV110">
+        <v>95.98</v>
       </c>
     </row>
     <row r="111">
@@ -17669,7 +18333,7 @@
         <v>33.6</v>
       </c>
       <c r="AV111">
-        <v>19792</v>
+        <v>19.792</v>
       </c>
       <c r="AX111">
         <v>157.1</v>
@@ -17682,6 +18346,12 @@
       </c>
       <c r="BA111">
         <v>-1</v>
+      </c>
+      <c r="CU111">
+        <v>0.590330061</v>
+      </c>
+      <c r="CV111">
+        <v>94.92400000000001</v>
       </c>
     </row>
     <row r="112">
@@ -17827,7 +18497,7 @@
         <v>33.4</v>
       </c>
       <c r="AV112">
-        <v>19064</v>
+        <v>19.064</v>
       </c>
       <c r="AX112">
         <v>157.8</v>
@@ -17840,6 +18510,12 @@
       </c>
       <c r="BA112">
         <v>-1</v>
+      </c>
+      <c r="CU112">
+        <v>0.590330061</v>
+      </c>
+      <c r="CV112">
+        <v>97.108</v>
       </c>
     </row>
     <row r="113">
@@ -17985,7 +18661,7 @@
         <v>33.8</v>
       </c>
       <c r="AV113">
-        <v>18852</v>
+        <v>18.852</v>
       </c>
       <c r="AX113">
         <v>158.5333333333333</v>
@@ -17998,6 +18674,12 @@
       </c>
       <c r="BA113">
         <v>-1</v>
+      </c>
+      <c r="CU113">
+        <v>0.590330061</v>
+      </c>
+      <c r="CV113">
+        <v>101.384</v>
       </c>
     </row>
     <row r="114">
@@ -18143,7 +18825,7 @@
         <v>33.8</v>
       </c>
       <c r="AV114">
-        <v>18852</v>
+        <v>18.852</v>
       </c>
       <c r="AX114">
         <v>158.7333333333333</v>
@@ -18156,6 +18838,12 @@
       </c>
       <c r="BA114">
         <v>-1</v>
+      </c>
+      <c r="CU114">
+        <v>0.583931481</v>
+      </c>
+      <c r="CV114">
+        <v>99.444</v>
       </c>
     </row>
     <row r="115">
@@ -18301,7 +18989,7 @@
         <v>35</v>
       </c>
       <c r="AV115">
-        <v>18800</v>
+        <v>18.8</v>
       </c>
       <c r="AX115">
         <v>159.2</v>
@@ -18314,6 +19002,12 @@
       </c>
       <c r="BA115">
         <v>-1</v>
+      </c>
+      <c r="CU115">
+        <v>0.583931481</v>
+      </c>
+      <c r="CV115">
+        <v>101.608</v>
       </c>
     </row>
     <row r="116">
@@ -18459,7 +19153,7 @@
         <v>36.8</v>
       </c>
       <c r="AV116">
-        <v>19780</v>
+        <v>19.78</v>
       </c>
       <c r="AX116">
         <v>159.9666666666667</v>
@@ -18472,6 +19166,12 @@
       </c>
       <c r="BA116">
         <v>-1</v>
+      </c>
+      <c r="CU116">
+        <v>0.583931481</v>
+      </c>
+      <c r="CV116">
+        <v>102.26</v>
       </c>
     </row>
     <row r="117">
@@ -18617,7 +19317,7 @@
         <v>39.9</v>
       </c>
       <c r="AV117">
-        <v>19312</v>
+        <v>19.312</v>
       </c>
       <c r="AX117">
         <v>160.7666666666667</v>
@@ -18630,6 +19330,12 @@
       </c>
       <c r="BA117">
         <v>-1</v>
+      </c>
+      <c r="CU117">
+        <v>0.583931481</v>
+      </c>
+      <c r="CV117">
+        <v>103.952</v>
       </c>
     </row>
     <row r="118">
@@ -18775,7 +19481,7 @@
         <v>42.4</v>
       </c>
       <c r="AV118">
-        <v>20304</v>
+        <v>20.304</v>
       </c>
       <c r="AX118">
         <v>161.3666666666667</v>
@@ -18788,6 +19494,12 @@
       </c>
       <c r="BA118">
         <v>-1</v>
+      </c>
+      <c r="CU118">
+        <v>0.58507835</v>
+      </c>
+      <c r="CV118">
+        <v>107.1</v>
       </c>
     </row>
     <row r="119">
@@ -18933,7 +19645,7 @@
         <v>45</v>
       </c>
       <c r="AV119">
-        <v>20404</v>
+        <v>20.404</v>
       </c>
       <c r="AX119">
         <v>162.5333333333333</v>
@@ -18946,6 +19658,12 @@
       </c>
       <c r="BA119">
         <v>-1</v>
+      </c>
+      <c r="CU119">
+        <v>0.58507835</v>
+      </c>
+      <c r="CV119">
+        <v>107.208</v>
       </c>
     </row>
     <row r="120">
@@ -19091,7 +19809,7 @@
         <v>46.4</v>
       </c>
       <c r="AV120">
-        <v>19852</v>
+        <v>19.852</v>
       </c>
       <c r="AX120">
         <v>163.9</v>
@@ -19104,6 +19822,12 @@
       </c>
       <c r="BA120">
         <v>-1</v>
+      </c>
+      <c r="CU120">
+        <v>0.58507835</v>
+      </c>
+      <c r="CV120">
+        <v>113.428</v>
       </c>
     </row>
     <row r="121">
@@ -19249,7 +19973,7 @@
         <v>46.9</v>
       </c>
       <c r="AV121">
-        <v>19584</v>
+        <v>19.584</v>
       </c>
       <c r="AX121">
         <v>165.2</v>
@@ -19262,6 +19986,12 @@
       </c>
       <c r="BA121">
         <v>-1</v>
+      </c>
+      <c r="CU121">
+        <v>0.58507835</v>
+      </c>
+      <c r="CV121">
+        <v>114.62</v>
       </c>
     </row>
     <row r="122">
@@ -19407,7 +20137,7 @@
         <v>45.1</v>
       </c>
       <c r="AV122">
-        <v>20072</v>
+        <v>20.072</v>
       </c>
       <c r="AX122">
         <v>166.8333333333333</v>
@@ -19420,6 +20150,12 @@
       </c>
       <c r="BA122">
         <v>-1</v>
+      </c>
+      <c r="CU122">
+        <v>0.584798053</v>
+      </c>
+      <c r="CV122">
+        <v>114.852</v>
       </c>
     </row>
     <row r="123">
@@ -19565,7 +20301,7 @@
         <v>45.5</v>
       </c>
       <c r="AV123">
-        <v>19528</v>
+        <v>19.528</v>
       </c>
       <c r="AX123">
         <v>168.1666666666667</v>
@@ -19578,6 +20314,12 @@
       </c>
       <c r="BA123">
         <v>-1</v>
+      </c>
+      <c r="CU123">
+        <v>0.584798053</v>
+      </c>
+      <c r="CV123">
+        <v>116.168</v>
       </c>
     </row>
     <row r="124">
@@ -19723,7 +20465,7 @@
         <v>45.8</v>
       </c>
       <c r="AV124">
-        <v>20092</v>
+        <v>20.092</v>
       </c>
       <c r="AX124">
         <v>169.7</v>
@@ -19736,6 +20478,12 @@
       </c>
       <c r="BA124">
         <v>-1</v>
+      </c>
+      <c r="CU124">
+        <v>0.584798053</v>
+      </c>
+      <c r="CV124">
+        <v>125.392</v>
       </c>
     </row>
     <row r="125">
@@ -19881,7 +20629,7 @@
         <v>47</v>
       </c>
       <c r="AV125">
-        <v>21320</v>
+        <v>21.32</v>
       </c>
       <c r="AX125">
         <v>170.8333333333333</v>
@@ -19894,6 +20642,12 @@
       </c>
       <c r="BA125">
         <v>-1</v>
+      </c>
+      <c r="CU125">
+        <v>0.584798053</v>
+      </c>
+      <c r="CV125">
+        <v>121.748</v>
       </c>
     </row>
     <row r="126">
@@ -20039,7 +20793,7 @@
         <v>55.2</v>
       </c>
       <c r="AV126">
-        <v>24876</v>
+        <v>24.876</v>
       </c>
       <c r="AX126">
         <v>172.4333333333333</v>
@@ -20052,6 +20806,12 @@
       </c>
       <c r="BA126">
         <v>1</v>
+      </c>
+      <c r="CU126">
+        <v>0.591881699</v>
+      </c>
+      <c r="CV126">
+        <v>129.388</v>
       </c>
     </row>
     <row r="127">
@@ -20197,7 +20957,7 @@
         <v>62</v>
       </c>
       <c r="AV127">
-        <v>27868</v>
+        <v>27.868</v>
       </c>
       <c r="AX127">
         <v>173.7333333333334</v>
@@ -20210,6 +20970,12 @@
       </c>
       <c r="BA127">
         <v>1</v>
+      </c>
+      <c r="CU127">
+        <v>0.591881699</v>
+      </c>
+      <c r="CV127">
+        <v>132.128</v>
       </c>
     </row>
     <row r="128">
@@ -20355,7 +21121,7 @@
         <v>71.2</v>
       </c>
       <c r="AV128">
-        <v>32624</v>
+        <v>32.624</v>
       </c>
       <c r="AX128">
         <v>174.1</v>
@@ -20368,6 +21134,12 @@
       </c>
       <c r="BA128">
         <v>1</v>
+      </c>
+      <c r="CU128">
+        <v>0.591881699</v>
+      </c>
+      <c r="CV128">
+        <v>133.364</v>
       </c>
     </row>
     <row r="129">
@@ -20513,7 +21285,7 @@
         <v>46.4</v>
       </c>
       <c r="AV129">
-        <v>40108</v>
+        <v>40.108</v>
       </c>
       <c r="AX129">
         <v>173.6666666666667</v>
@@ -20526,6 +21298,12 @@
       </c>
       <c r="BA129">
         <v>1</v>
+      </c>
+      <c r="CU129">
+        <v>0.591881699</v>
+      </c>
+      <c r="CV129">
+        <v>143.652</v>
       </c>
     </row>
     <row r="130">
@@ -20671,7 +21449,7 @@
         <v>42.6</v>
       </c>
       <c r="AV130">
-        <v>41187</v>
+        <v>41.187</v>
       </c>
       <c r="AX130">
         <v>174.0333333333333</v>
@@ -20684,6 +21462,12 @@
       </c>
       <c r="BA130">
         <v>-1</v>
+      </c>
+      <c r="CU130">
+        <v>0.58792121</v>
+      </c>
+      <c r="CV130">
+        <v>145.547</v>
       </c>
     </row>
     <row r="131">
@@ -20829,7 +21613,7 @@
         <v>39.8</v>
       </c>
       <c r="AV131">
-        <v>43142</v>
+        <v>43.142</v>
       </c>
       <c r="AX131">
         <v>175.5333333333333</v>
@@ -20842,6 +21626,12 @@
       </c>
       <c r="BA131">
         <v>-1</v>
+      </c>
+      <c r="CU131">
+        <v>0.58792121</v>
+      </c>
+      <c r="CV131">
+        <v>146.352</v>
       </c>
     </row>
     <row r="132">
@@ -20987,7 +21777,7 @@
         <v>41.3</v>
       </c>
       <c r="AV132">
-        <v>42093</v>
+        <v>42.093</v>
       </c>
       <c r="AX132">
         <v>176.5</v>
@@ -21000,6 +21790,12 @@
       </c>
       <c r="BA132">
         <v>-1</v>
+      </c>
+      <c r="CU132">
+        <v>0.58792121</v>
+      </c>
+      <c r="CV132">
+        <v>152.896</v>
       </c>
     </row>
     <row r="133">
@@ -21145,7 +21941,7 @@
         <v>41.9</v>
       </c>
       <c r="AV133">
-        <v>41942</v>
+        <v>41.942</v>
       </c>
       <c r="AX133">
         <v>177.4666666666667</v>
@@ -21158,6 +21954,12 @@
       </c>
       <c r="BA133">
         <v>-1</v>
+      </c>
+      <c r="CU133">
+        <v>0.58792121</v>
+      </c>
+      <c r="CV133">
+        <v>155.307</v>
       </c>
     </row>
     <row r="134">
@@ -21303,7 +22105,7 @@
         <v>47.1</v>
       </c>
       <c r="AV134">
-        <v>41355</v>
+        <v>41.355</v>
       </c>
       <c r="AX134">
         <v>179.4666666666667</v>
@@ -21316,6 +22118,12 @@
       </c>
       <c r="BA134">
         <v>-1</v>
+      </c>
+      <c r="CU134">
+        <v>0.6001765610000001</v>
+      </c>
+      <c r="CV134">
+        <v>154.378</v>
       </c>
     </row>
     <row r="135">
@@ -21461,7 +22269,7 @@
         <v>57.1</v>
       </c>
       <c r="AV135">
-        <v>43223</v>
+        <v>43.223</v>
       </c>
       <c r="AX135">
         <v>178.9333333333333</v>
@@ -21474,6 +22282,12 @@
       </c>
       <c r="BA135">
         <v>-1</v>
+      </c>
+      <c r="CU135">
+        <v>0.6001765610000001</v>
+      </c>
+      <c r="CV135">
+        <v>158.02</v>
       </c>
     </row>
     <row r="136">
@@ -21619,7 +22433,7 @@
         <v>45.9</v>
       </c>
       <c r="AV136">
-        <v>41974</v>
+        <v>41.974</v>
       </c>
       <c r="AX136">
         <v>180.2</v>
@@ -21632,6 +22446,12 @@
       </c>
       <c r="BA136">
         <v>-1</v>
+      </c>
+      <c r="CU136">
+        <v>0.6001765610000001</v>
+      </c>
+      <c r="CV136">
+        <v>174.229</v>
       </c>
     </row>
     <row r="137">
@@ -21777,7 +22597,7 @@
         <v>46</v>
       </c>
       <c r="AV137">
-        <v>39385</v>
+        <v>39.385</v>
       </c>
       <c r="AX137">
         <v>180.7333333333334</v>
@@ -21790,6 +22610,12 @@
       </c>
       <c r="BA137">
         <v>-1</v>
+      </c>
+      <c r="CU137">
+        <v>0.6001765610000001</v>
+      </c>
+      <c r="CV137">
+        <v>170.506</v>
       </c>
     </row>
     <row r="138">
@@ -21935,7 +22761,7 @@
         <v>44.2</v>
       </c>
       <c r="AV138">
-        <v>36288</v>
+        <v>36.288</v>
       </c>
       <c r="AX138">
         <v>182.3333333333333</v>
@@ -21948,6 +22774,12 @@
       </c>
       <c r="BA138">
         <v>-1</v>
+      </c>
+      <c r="CU138">
+        <v>0.595142828</v>
+      </c>
+      <c r="CV138">
+        <v>177.772</v>
       </c>
     </row>
     <row r="139">
@@ -22093,7 +22925,7 @@
         <v>43.7</v>
       </c>
       <c r="AV139">
-        <v>34859</v>
+        <v>34.859</v>
       </c>
       <c r="AX139">
         <v>183.6666666666667</v>
@@ -22106,6 +22938,12 @@
       </c>
       <c r="BA139">
         <v>-1</v>
+      </c>
+      <c r="CU139">
+        <v>0.595142828</v>
+      </c>
+      <c r="CV139">
+        <v>182.692</v>
       </c>
     </row>
     <row r="140">
@@ -22251,7 +23089,7 @@
         <v>45.4</v>
       </c>
       <c r="AV140">
-        <v>33830</v>
+        <v>33.83</v>
       </c>
       <c r="AX140">
         <v>184.8666666666667</v>
@@ -22264,6 +23102,12 @@
       </c>
       <c r="BA140">
         <v>-1</v>
+      </c>
+      <c r="CU140">
+        <v>0.595142828</v>
+      </c>
+      <c r="CV140">
+        <v>173.33</v>
       </c>
     </row>
     <row r="141">
@@ -22409,7 +23253,7 @@
         <v>52.3</v>
       </c>
       <c r="AV141">
-        <v>32126</v>
+        <v>32.126</v>
       </c>
       <c r="AX141">
         <v>187.0666666666667</v>
@@ -22422,6 +23266,12 @@
       </c>
       <c r="BA141">
         <v>-1</v>
+      </c>
+      <c r="CU141">
+        <v>0.595142828</v>
+      </c>
+      <c r="CV141">
+        <v>177.282</v>
       </c>
     </row>
     <row r="142">
@@ -22567,7 +23417,7 @@
         <v>56.7</v>
       </c>
       <c r="AV142">
-        <v>31363</v>
+        <v>31.363</v>
       </c>
       <c r="AX142">
         <v>187.9333333333333</v>
@@ -22580,6 +23430,12 @@
       </c>
       <c r="BA142">
         <v>-1</v>
+      </c>
+      <c r="CU142">
+        <v>0.5767030480000001</v>
+      </c>
+      <c r="CV142">
+        <v>183.908</v>
       </c>
     </row>
     <row r="143">
@@ -22725,7 +23581,7 @@
         <v>60.7</v>
       </c>
       <c r="AV143">
-        <v>30188</v>
+        <v>30.188</v>
       </c>
       <c r="AX143">
         <v>189.2333333333334</v>
@@ -22738,6 +23594,12 @@
       </c>
       <c r="BA143">
         <v>-1</v>
+      </c>
+      <c r="CU143">
+        <v>0.5767030480000001</v>
+      </c>
+      <c r="CV143">
+        <v>185.818</v>
       </c>
     </row>
     <row r="144">
@@ -22883,7 +23745,7 @@
         <v>62</v>
       </c>
       <c r="AV144">
-        <v>30774</v>
+        <v>30.774</v>
       </c>
       <c r="AX144">
         <v>192.5666666666667</v>
@@ -22896,6 +23758,12 @@
       </c>
       <c r="BA144">
         <v>-1</v>
+      </c>
+      <c r="CU144">
+        <v>0.5767030480000001</v>
+      </c>
+      <c r="CV144">
+        <v>179.683</v>
       </c>
     </row>
     <row r="145">
@@ -23041,7 +23909,7 @@
         <v>64.2</v>
       </c>
       <c r="AV145">
-        <v>31798</v>
+        <v>31.798</v>
       </c>
       <c r="AX145">
         <v>194.2</v>
@@ -23054,6 +23922,12 @@
       </c>
       <c r="BA145">
         <v>-1</v>
+      </c>
+      <c r="CU145">
+        <v>0.5767030480000001</v>
+      </c>
+      <c r="CV145">
+        <v>182.944</v>
       </c>
     </row>
     <row r="146">
@@ -23199,7 +24073,7 @@
         <v>55.7</v>
       </c>
       <c r="AV146">
-        <v>29568</v>
+        <v>29.568</v>
       </c>
       <c r="AX146">
         <v>195.1333333333334</v>
@@ -23212,6 +24086,12 @@
       </c>
       <c r="BA146">
         <v>-1</v>
+      </c>
+      <c r="CU146">
+        <v>0.570396069</v>
+      </c>
+      <c r="CV146">
+        <v>175.956</v>
       </c>
     </row>
     <row r="147">
@@ -23357,7 +24237,7 @@
         <v>51.5</v>
       </c>
       <c r="AV147">
-        <v>28723</v>
+        <v>28.723</v>
       </c>
       <c r="AX147">
         <v>196.9333333333333</v>
@@ -23370,6 +24250,12 @@
       </c>
       <c r="BA147">
         <v>-1</v>
+      </c>
+      <c r="CU147">
+        <v>0.570396069</v>
+      </c>
+      <c r="CV147">
+        <v>176.53</v>
       </c>
     </row>
     <row r="148">
@@ -23515,7 +24401,7 @@
         <v>49.9</v>
       </c>
       <c r="AV148">
-        <v>29815</v>
+        <v>29.815</v>
       </c>
       <c r="AX148">
         <v>198.8</v>
@@ -23528,6 +24414,12 @@
       </c>
       <c r="BA148">
         <v>-1</v>
+      </c>
+      <c r="CU148">
+        <v>0.570396069</v>
+      </c>
+      <c r="CV148">
+        <v>186.733</v>
       </c>
     </row>
     <row r="149">
@@ -23673,7 +24565,7 @@
         <v>48.7</v>
       </c>
       <c r="AV149">
-        <v>30381</v>
+        <v>30.381</v>
       </c>
       <c r="AX149">
         <v>197.5666666666666</v>
@@ -23686,6 +24578,12 @@
       </c>
       <c r="BA149">
         <v>-1</v>
+      </c>
+      <c r="CU149">
+        <v>0.570396069</v>
+      </c>
+      <c r="CV149">
+        <v>177.659</v>
       </c>
     </row>
     <row r="150">
@@ -23831,7 +24729,7 @@
         <v>49.5</v>
       </c>
       <c r="AV150">
-        <v>31562</v>
+        <v>31.562</v>
       </c>
       <c r="AX150">
         <v>199.553</v>
@@ -23844,6 +24742,12 @@
       </c>
       <c r="BA150">
         <v>-1</v>
+      </c>
+      <c r="CU150">
+        <v>0.57281165</v>
+      </c>
+      <c r="CV150">
+        <v>200.218</v>
       </c>
     </row>
     <row r="151">
@@ -23989,7 +24893,7 @@
         <v>58.2</v>
       </c>
       <c r="AV151">
-        <v>31128</v>
+        <v>31.128</v>
       </c>
       <c r="AX151">
         <v>202.077</v>
@@ -24002,6 +24906,12 @@
       </c>
       <c r="BA151">
         <v>-1</v>
+      </c>
+      <c r="CU151">
+        <v>0.57281165</v>
+      </c>
+      <c r="CV151">
+        <v>190.602</v>
       </c>
     </row>
     <row r="152">
@@ -24147,7 +25057,7 @@
         <v>55.9</v>
       </c>
       <c r="AV152">
-        <v>32144</v>
+        <v>32.144</v>
       </c>
       <c r="AX152">
         <v>203.37</v>
@@ -24160,6 +25070,12 @@
       </c>
       <c r="BA152">
         <v>-1</v>
+      </c>
+      <c r="CU152">
+        <v>0.57281165</v>
+      </c>
+      <c r="CV152">
+        <v>194.111</v>
       </c>
     </row>
     <row r="153">
@@ -24305,7 +25221,7 @@
         <v>54.7</v>
       </c>
       <c r="AV153">
-        <v>33303</v>
+        <v>33.303</v>
       </c>
       <c r="AX153">
         <v>206.0856666666666</v>
@@ -24318,6 +25234,12 @@
       </c>
       <c r="BA153">
         <v>1</v>
+      </c>
+      <c r="CU153">
+        <v>0.57281165</v>
+      </c>
+      <c r="CV153">
+        <v>196.028</v>
       </c>
     </row>
     <row r="154">
@@ -24463,7 +25385,7 @@
         <v>51.9</v>
       </c>
       <c r="AV154">
-        <v>35577</v>
+        <v>35.577</v>
       </c>
       <c r="AX154">
         <v>208.516</v>
@@ -24476,6 +25398,12 @@
       </c>
       <c r="BA154">
         <v>1</v>
+      </c>
+      <c r="CU154">
+        <v>0.593143518</v>
+      </c>
+      <c r="CV154">
+        <v>200.294</v>
       </c>
     </row>
     <row r="155">
@@ -24621,7 +25549,7 @@
         <v>51.7</v>
       </c>
       <c r="AV155">
-        <v>37546</v>
+        <v>37.546</v>
       </c>
       <c r="AX155">
         <v>211.5026666666667</v>
@@ -24634,6 +25562,12 @@
       </c>
       <c r="BA155">
         <v>1</v>
+      </c>
+      <c r="CU155">
+        <v>0.593143518</v>
+      </c>
+      <c r="CV155">
+        <v>203.794</v>
       </c>
     </row>
     <row r="156">
@@ -24779,7 +25713,7 @@
         <v>52</v>
       </c>
       <c r="AV156">
-        <v>42716</v>
+        <v>42.716</v>
       </c>
       <c r="AX156">
         <v>215.13</v>
@@ -24792,6 +25726,12 @@
       </c>
       <c r="BA156">
         <v>1</v>
+      </c>
+      <c r="CU156">
+        <v>0.593143518</v>
+      </c>
+      <c r="CV156">
+        <v>205.059</v>
       </c>
     </row>
     <row r="157">
@@ -24937,7 +25877,7 @@
         <v>54.6</v>
       </c>
       <c r="AV157">
-        <v>54221</v>
+        <v>54.221</v>
       </c>
       <c r="AX157">
         <v>208.8386666666667</v>
@@ -24950,6 +25890,12 @@
       </c>
       <c r="BA157">
         <v>1</v>
+      </c>
+      <c r="CU157">
+        <v>0.593143518</v>
+      </c>
+      <c r="CV157">
+        <v>208.505</v>
       </c>
     </row>
     <row r="158">
@@ -25095,7 +26041,7 @@
         <v>55.4</v>
       </c>
       <c r="AV158">
-        <v>71755</v>
+        <v>71.755</v>
       </c>
       <c r="AX158">
         <v>206.9433333333334</v>
@@ -25108,6 +26054,12 @@
       </c>
       <c r="BA158">
         <v>1</v>
+      </c>
+      <c r="CU158">
+        <v>0.661803143</v>
+      </c>
+      <c r="CV158">
+        <v>256.944</v>
       </c>
     </row>
     <row r="159">
@@ -25253,7 +26205,7 @@
         <v>55.5</v>
       </c>
       <c r="AV159">
-        <v>93374</v>
+        <v>93.374</v>
       </c>
       <c r="AX159">
         <v>208.3903333333334</v>
@@ -25266,6 +26218,12 @@
       </c>
       <c r="BA159">
         <v>1</v>
+      </c>
+      <c r="CU159">
+        <v>0.661803143</v>
+      </c>
+      <c r="CV159">
+        <v>274.664</v>
       </c>
     </row>
     <row r="160">
@@ -25411,7 +26369,7 @@
         <v>67.09999999999999</v>
       </c>
       <c r="AV160">
-        <v>95724</v>
+        <v>95.724</v>
       </c>
       <c r="AX160">
         <v>210.695</v>
@@ -25424,6 +26382,12 @@
       </c>
       <c r="BA160">
         <v>-1</v>
+      </c>
+      <c r="CU160">
+        <v>0.661803143</v>
+      </c>
+      <c r="CV160">
+        <v>263.924</v>
       </c>
     </row>
     <row r="161">
@@ -25569,7 +26533,7 @@
         <v>55.5</v>
       </c>
       <c r="AV161">
-        <v>82110</v>
+        <v>82.11</v>
       </c>
       <c r="AX161">
         <v>212.6326666666666</v>
@@ -25582,6 +26546,12 @@
       </c>
       <c r="BA161">
         <v>-1</v>
+      </c>
+      <c r="CU161">
+        <v>0.661803143</v>
+      </c>
+      <c r="CV161">
+        <v>261.944</v>
       </c>
     </row>
     <row r="162">
@@ -25727,7 +26697,7 @@
         <v>54.8</v>
       </c>
       <c r="AV162">
-        <v>66932</v>
+        <v>66.932</v>
       </c>
       <c r="AX162">
         <v>213.237</v>
@@ -25740,6 +26710,12 @@
       </c>
       <c r="BA162">
         <v>-1</v>
+      </c>
+      <c r="CU162">
+        <v>0.671326568</v>
+      </c>
+      <c r="CV162">
+        <v>271.844</v>
       </c>
     </row>
     <row r="163">
@@ -25885,7 +26861,7 @@
         <v>55.5</v>
       </c>
       <c r="AV163">
-        <v>64967</v>
+        <v>64.967</v>
       </c>
       <c r="AX163">
         <v>213.1506666666667</v>
@@ -25898,6 +26874,12 @@
       </c>
       <c r="BA163">
         <v>-1</v>
+      </c>
+      <c r="CU163">
+        <v>0.671326568</v>
+      </c>
+      <c r="CV163">
+        <v>272.456</v>
       </c>
     </row>
     <row r="164">
@@ -26043,7 +27025,7 @@
         <v>56</v>
       </c>
       <c r="AV164">
-        <v>70037</v>
+        <v>70.03700000000001</v>
       </c>
       <c r="AX164">
         <v>213.82</v>
@@ -26056,6 +27038,12 @@
       </c>
       <c r="BA164">
         <v>-1</v>
+      </c>
+      <c r="CU164">
+        <v>0.671326568</v>
+      </c>
+      <c r="CV164">
+        <v>283.691</v>
       </c>
     </row>
     <row r="165">
@@ -26201,7 +27189,7 @@
         <v>56.9</v>
       </c>
       <c r="AV165">
-        <v>66693</v>
+        <v>66.693</v>
       </c>
       <c r="AX165">
         <v>215.764</v>
@@ -26214,6 +27202,12 @@
       </c>
       <c r="BA165">
         <v>-1</v>
+      </c>
+      <c r="CU165">
+        <v>0.671326568</v>
+      </c>
+      <c r="CV165">
+        <v>297.609</v>
       </c>
     </row>
     <row r="166">
@@ -26359,7 +27353,7 @@
         <v>58.9</v>
       </c>
       <c r="AV166">
-        <v>61132</v>
+        <v>61.132</v>
       </c>
       <c r="AX166">
         <v>218.4156666666667</v>
@@ -26372,6 +27366,12 @@
       </c>
       <c r="BA166">
         <v>-1</v>
+      </c>
+      <c r="CU166">
+        <v>0.6102148040000001</v>
+      </c>
+      <c r="CV166">
+        <v>282.445</v>
       </c>
     </row>
     <row r="167">
@@ -26517,7 +27517,7 @@
         <v>59.9</v>
       </c>
       <c r="AV167">
-        <v>57152</v>
+        <v>57.152</v>
       </c>
       <c r="AX167">
         <v>221.2876666666667</v>
@@ -26530,6 +27530,12 @@
       </c>
       <c r="BA167">
         <v>-1</v>
+      </c>
+      <c r="CU167">
+        <v>0.6102148040000001</v>
+      </c>
+      <c r="CV167">
+        <v>277.196</v>
       </c>
     </row>
     <row r="168">
@@ -26675,7 +27681,7 @@
         <v>60.2</v>
       </c>
       <c r="AV168">
-        <v>54998</v>
+        <v>54.998</v>
       </c>
       <c r="AX168">
         <v>222.738</v>
@@ -26688,6 +27694,12 @@
       </c>
       <c r="BA168">
         <v>-1</v>
+      </c>
+      <c r="CU168">
+        <v>0.6102148040000001</v>
+      </c>
+      <c r="CV168">
+        <v>237.739</v>
       </c>
     </row>
     <row r="169">
@@ -26833,7 +27845,7 @@
         <v>61.1</v>
       </c>
       <c r="AV169">
-        <v>54201</v>
+        <v>54.201</v>
       </c>
       <c r="AX169">
         <v>223.7746666666667</v>
@@ -26846,6 +27858,12 @@
       </c>
       <c r="BA169">
         <v>-1</v>
+      </c>
+      <c r="CU169">
+        <v>0.6102148040000001</v>
+      </c>
+      <c r="CV169">
+        <v>239.291</v>
       </c>
     </row>
     <row r="170">
@@ -26991,7 +28009,7 @@
         <v>58.4</v>
       </c>
       <c r="AV170">
-        <v>49963</v>
+        <v>49.963</v>
       </c>
       <c r="AX170">
         <v>225.0873333333333</v>
@@ -27004,6 +28022,12 @@
       </c>
       <c r="BA170">
         <v>-1</v>
+      </c>
+      <c r="CU170">
+        <v>0.579016734</v>
+      </c>
+      <c r="CV170">
+        <v>246.248</v>
       </c>
     </row>
     <row r="171">
@@ -27149,7 +28173,7 @@
         <v>58.1</v>
       </c>
       <c r="AV171">
-        <v>45690</v>
+        <v>45.69</v>
       </c>
       <c r="AX171">
         <v>225.4593333333333</v>
@@ -27162,6 +28186,12 @@
       </c>
       <c r="BA171">
         <v>-1</v>
+      </c>
+      <c r="CU171">
+        <v>0.579016734</v>
+      </c>
+      <c r="CV171">
+        <v>262.324</v>
       </c>
     </row>
     <row r="172">
@@ -27307,7 +28337,7 @@
         <v>56.3</v>
       </c>
       <c r="AV172">
-        <v>42696</v>
+        <v>42.696</v>
       </c>
       <c r="AX172">
         <v>226.357</v>
@@ -27320,6 +28350,12 @@
       </c>
       <c r="BA172">
         <v>-1</v>
+      </c>
+      <c r="CU172">
+        <v>0.579016734</v>
+      </c>
+      <c r="CV172">
+        <v>250.54</v>
       </c>
     </row>
     <row r="173">
@@ -27465,7 +28501,7 @@
         <v>59.4</v>
       </c>
       <c r="AV173">
-        <v>42653</v>
+        <v>42.653</v>
       </c>
       <c r="AX173">
         <v>227.9716666666667</v>
@@ -27478,6 +28514,12 @@
       </c>
       <c r="BA173">
         <v>-1</v>
+      </c>
+      <c r="CU173">
+        <v>0.579016734</v>
+      </c>
+      <c r="CV173">
+        <v>259.562</v>
       </c>
     </row>
     <row r="174">
@@ -27623,7 +28665,7 @@
         <v>59.4</v>
       </c>
       <c r="AV174">
-        <v>39763</v>
+        <v>39.763</v>
       </c>
       <c r="AX174">
         <v>228.8366666666667</v>
@@ -27636,6 +28678,12 @@
       </c>
       <c r="BA174">
         <v>-1</v>
+      </c>
+      <c r="CU174">
+        <v>0.580347547</v>
+      </c>
+      <c r="CV174">
+        <v>258.45</v>
       </c>
     </row>
     <row r="175">
@@ -27781,7 +28829,7 @@
         <v>60.1</v>
       </c>
       <c r="AV175">
-        <v>39107</v>
+        <v>39.107</v>
       </c>
       <c r="AX175">
         <v>228.4096666666667</v>
@@ -27794,6 +28842,12 @@
       </c>
       <c r="BA175">
         <v>-1</v>
+      </c>
+      <c r="CU175">
+        <v>0.580347547</v>
+      </c>
+      <c r="CV175">
+        <v>270.887</v>
       </c>
     </row>
     <row r="176">
@@ -27939,7 +28993,7 @@
         <v>60</v>
       </c>
       <c r="AV176">
-        <v>38505</v>
+        <v>38.505</v>
       </c>
       <c r="AX176">
         <v>229.589</v>
@@ -27952,6 +29006,12 @@
       </c>
       <c r="BA176">
         <v>-1</v>
+      </c>
+      <c r="CU176">
+        <v>0.580347547</v>
+      </c>
+      <c r="CV176">
+        <v>269.279</v>
       </c>
     </row>
     <row r="177">
@@ -28097,7 +29157,7 @@
         <v>59.4</v>
       </c>
       <c r="AV177">
-        <v>37552</v>
+        <v>37.552</v>
       </c>
       <c r="AX177">
         <v>230.4336666666667</v>
@@ -28110,6 +29170,12 @@
       </c>
       <c r="BA177">
         <v>-1</v>
+      </c>
+      <c r="CU177">
+        <v>0.580347547</v>
+      </c>
+      <c r="CV177">
+        <v>269.982</v>
       </c>
     </row>
     <row r="178">
@@ -28255,7 +29321,7 @@
         <v>58.7</v>
       </c>
       <c r="AV178">
-        <v>37237</v>
+        <v>37.237</v>
       </c>
       <c r="AX178">
         <v>231.95</v>
@@ -28268,6 +29334,12 @@
       </c>
       <c r="BA178">
         <v>-1</v>
+      </c>
+      <c r="CU178">
+        <v>0.616274769</v>
+      </c>
+      <c r="CV178">
+        <v>291.59</v>
       </c>
     </row>
     <row r="179">
@@ -28413,7 +29485,7 @@
         <v>58.5</v>
       </c>
       <c r="AV179">
-        <v>34943</v>
+        <v>34.943</v>
       </c>
       <c r="AX179">
         <v>233.1013333333334</v>
@@ -28426,6 +29498,12 @@
       </c>
       <c r="BA179">
         <v>-1</v>
+      </c>
+      <c r="CU179">
+        <v>0.616274769</v>
+      </c>
+      <c r="CV179">
+        <v>307.775</v>
       </c>
     </row>
     <row r="180">
@@ -28571,7 +29649,7 @@
         <v>58.2</v>
       </c>
       <c r="AV180">
-        <v>33201</v>
+        <v>33.201</v>
       </c>
       <c r="AX180">
         <v>233.4943333333333</v>
@@ -28584,6 +29662,12 @@
       </c>
       <c r="BA180">
         <v>-1</v>
+      </c>
+      <c r="CU180">
+        <v>0.616274769</v>
+      </c>
+      <c r="CV180">
+        <v>332.4</v>
       </c>
     </row>
     <row r="181">
@@ -28729,7 +29813,7 @@
         <v>57</v>
       </c>
       <c r="AV181">
-        <v>32209</v>
+        <v>32.209</v>
       </c>
       <c r="AX181">
         <v>232.431</v>
@@ -28742,6 +29826,12 @@
       </c>
       <c r="BA181">
         <v>-1</v>
+      </c>
+      <c r="CU181">
+        <v>0.616274769</v>
+      </c>
+      <c r="CV181">
+        <v>335.611</v>
       </c>
     </row>
     <row r="182">
@@ -28887,7 +29977,7 @@
         <v>56</v>
       </c>
       <c r="AV182">
-        <v>32153</v>
+        <v>32.153</v>
       </c>
       <c r="AX182">
         <v>230.2366666666667</v>
@@ -28900,6 +29990,12 @@
       </c>
       <c r="BA182">
         <v>-1</v>
+      </c>
+      <c r="CU182">
+        <v>0.634327247</v>
+      </c>
+      <c r="CV182">
+        <v>352.188</v>
       </c>
     </row>
     <row r="183">
@@ -29045,7 +30141,7 @@
         <v>56.4</v>
       </c>
       <c r="AV183">
-        <v>31701</v>
+        <v>31.701</v>
       </c>
       <c r="AX183">
         <v>231.9576666666667</v>
@@ -29058,6 +30154,12 @@
       </c>
       <c r="BA183">
         <v>-1</v>
+      </c>
+      <c r="CU183">
+        <v>0.634327247</v>
+      </c>
+      <c r="CV183">
+        <v>353.442</v>
       </c>
     </row>
     <row r="184">
@@ -29203,7 +30305,7 @@
         <v>57.7</v>
       </c>
       <c r="AV184">
-        <v>31839</v>
+        <v>31.839</v>
       </c>
       <c r="AX184">
         <v>232.6933333333334</v>
@@ -29216,6 +30318,12 @@
       </c>
       <c r="BA184">
         <v>-1</v>
+      </c>
+      <c r="CU184">
+        <v>0.634327247</v>
+      </c>
+      <c r="CV184">
+        <v>352.909</v>
       </c>
     </row>
     <row r="185">
@@ -29361,7 +30469,7 @@
         <v>58.7</v>
       </c>
       <c r="AV185">
-        <v>31762</v>
+        <v>31.762</v>
       </c>
       <c r="AX185">
         <v>232.2803333333334</v>
@@ -29374,6 +30482,12 @@
       </c>
       <c r="BA185">
         <v>-1</v>
+      </c>
+      <c r="CU185">
+        <v>0.634327247</v>
+      </c>
+      <c r="CV185">
+        <v>366.274</v>
       </c>
     </row>
     <row r="186">
@@ -29519,7 +30633,7 @@
         <v>60.7</v>
       </c>
       <c r="AV186">
-        <v>31925</v>
+        <v>31.925</v>
       </c>
       <c r="AX186">
         <v>231.8976666666667</v>
@@ -29532,6 +30646,12 @@
       </c>
       <c r="BA186">
         <v>-1</v>
+      </c>
+      <c r="CU186">
+        <v>0.641437608</v>
+      </c>
+      <c r="CV186">
+        <v>359.556</v>
       </c>
     </row>
     <row r="187">
@@ -29677,7 +30797,7 @@
         <v>62.4</v>
       </c>
       <c r="AV187">
-        <v>31992</v>
+        <v>31.992</v>
       </c>
       <c r="AX187">
         <v>233.6383333333334</v>
@@ -29690,6 +30810,12 @@
       </c>
       <c r="BA187">
         <v>-1</v>
+      </c>
+      <c r="CU187">
+        <v>0.641437608</v>
+      </c>
+      <c r="CV187">
+        <v>364.761</v>
       </c>
     </row>
     <row r="188">
@@ -29835,7 +30961,7 @@
         <v>63</v>
       </c>
       <c r="AV188">
-        <v>31816</v>
+        <v>31.816</v>
       </c>
       <c r="AX188">
         <v>234.569</v>
@@ -29848,6 +30974,12 @@
       </c>
       <c r="BA188">
         <v>-1</v>
+      </c>
+      <c r="CU188">
+        <v>0.641437608</v>
+      </c>
+      <c r="CV188">
+        <v>377.98</v>
       </c>
     </row>
     <row r="189">
@@ -29993,7 +31125,7 @@
         <v>61</v>
       </c>
       <c r="AV189">
-        <v>30943</v>
+        <v>30.943</v>
       </c>
       <c r="AX189">
         <v>236.0903333333333</v>
@@ -30006,6 +31138,12 @@
       </c>
       <c r="BA189">
         <v>-1</v>
+      </c>
+      <c r="CU189">
+        <v>0.641437608</v>
+      </c>
+      <c r="CV189">
+        <v>387.911</v>
       </c>
     </row>
     <row r="190">
@@ -30151,7 +31289,7 @@
         <v>59.5</v>
       </c>
       <c r="AV190">
-        <v>30386</v>
+        <v>30.386</v>
       </c>
       <c r="AX190">
         <v>237.8366666666667</v>
@@ -30254,6 +31392,12 @@
       </c>
       <c r="CS190">
         <v>0.00363299075745438</v>
+      </c>
+      <c r="CU190">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV190">
+        <v>375.901</v>
       </c>
     </row>
     <row r="191">
@@ -30399,7 +31543,7 @@
         <v>58.1</v>
       </c>
       <c r="AV191">
-        <v>29666</v>
+        <v>29.666</v>
       </c>
       <c r="AX191">
         <v>237.876</v>
@@ -30508,6 +31652,12 @@
       </c>
       <c r="CS191">
         <v>0.00363299075745438</v>
+      </c>
+      <c r="CU191">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV191">
+        <v>353.506</v>
       </c>
     </row>
     <row r="192">
@@ -30653,7 +31803,7 @@
         <v>61.9</v>
       </c>
       <c r="AV192">
-        <v>29811</v>
+        <v>29.811</v>
       </c>
       <c r="AX192">
         <v>239.2166666666667</v>
@@ -30765,6 +31915,12 @@
       </c>
       <c r="CS192">
         <v>0.00803007361770991</v>
+      </c>
+      <c r="CU192">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV192">
+        <v>376.693</v>
       </c>
     </row>
     <row r="193">
@@ -30910,7 +32066,7 @@
         <v>60</v>
       </c>
       <c r="AV193">
-        <v>29364</v>
+        <v>29.364</v>
       </c>
       <c r="AX193">
         <v>241.274</v>
@@ -31049,6 +32205,12 @@
       </c>
       <c r="CS193">
         <v>0.01148564106586103</v>
+      </c>
+      <c r="CU193">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV193">
+        <v>382.986</v>
       </c>
     </row>
     <row r="194">
@@ -31194,7 +32356,7 @@
         <v>58.2</v>
       </c>
       <c r="AV194">
-        <v>28799</v>
+        <v>28.799</v>
       </c>
       <c r="AX194">
         <v>243.3273333333333</v>
@@ -31333,6 +32495,12 @@
       </c>
       <c r="CS194">
         <v>0.009122313931293258</v>
+      </c>
+      <c r="CU194">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV194">
+        <v>389.195</v>
       </c>
     </row>
     <row r="195">
@@ -31478,7 +32646,7 @@
         <v>57.8</v>
       </c>
       <c r="AV195">
-        <v>27492</v>
+        <v>27.492</v>
       </c>
       <c r="AX195">
         <v>244.6613333333334</v>
@@ -31617,6 +32785,12 @@
       </c>
       <c r="CS195">
         <v>0.01076659899376375</v>
+      </c>
+      <c r="CU195">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV195">
+        <v>386.857</v>
       </c>
     </row>
     <row r="196">
@@ -31762,7 +32936,7 @@
         <v>57.9</v>
       </c>
       <c r="AV196">
-        <v>26989</v>
+        <v>26.989</v>
       </c>
       <c r="AX196">
         <v>245.9633333333333</v>
@@ -31901,6 +33075,12 @@
       </c>
       <c r="CS196">
         <v>0.008208800786170034</v>
+      </c>
+      <c r="CU196">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV196">
+        <v>392.516</v>
       </c>
     </row>
     <row r="197">
@@ -32046,7 +33226,7 @@
         <v>79.5</v>
       </c>
       <c r="AV197">
-        <v>26647</v>
+        <v>26.647</v>
       </c>
       <c r="AX197">
         <v>246.6076666666667</v>
@@ -32185,6 +33365,12 @@
       </c>
       <c r="CS197">
         <v>0.007195932127832538</v>
+      </c>
+      <c r="CU197">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV197">
+        <v>389.624</v>
       </c>
     </row>
     <row r="198">
@@ -32330,7 +33516,7 @@
         <v>71.3</v>
       </c>
       <c r="AV198">
-        <v>27557</v>
+        <v>27.557</v>
       </c>
       <c r="AX198">
         <v>246.8373333333333</v>
@@ -32475,6 +33661,12 @@
       </c>
       <c r="CS198">
         <v>-0.001498029111450472</v>
+      </c>
+      <c r="CU198">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV198">
+        <v>404.529</v>
       </c>
     </row>
     <row r="199">
@@ -32620,7 +33812,7 @@
         <v>61.1</v>
       </c>
       <c r="AV199">
-        <v>27095</v>
+        <v>27.095</v>
       </c>
       <c r="AX199">
         <v>248.8213333333333</v>
@@ -32765,6 +33957,12 @@
       </c>
       <c r="CS199">
         <v>0.01011989618787412</v>
+      </c>
+      <c r="CU199">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV199">
+        <v>419.672</v>
       </c>
     </row>
     <row r="200">
@@ -32910,7 +34108,7 @@
         <v>82</v>
       </c>
       <c r="AV200">
-        <v>27197</v>
+        <v>27.197</v>
       </c>
       <c r="AX200">
         <v>249.831</v>
@@ -33055,6 +34253,12 @@
       </c>
       <c r="CS200">
         <v>0.004019806445718199</v>
+      </c>
+      <c r="CU200">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV200">
+        <v>418.824</v>
       </c>
     </row>
     <row r="201">
@@ -33200,7 +34404,7 @@
         <v>81.09999999999999</v>
       </c>
       <c r="AV201">
-        <v>27492</v>
+        <v>27.492</v>
       </c>
       <c r="AX201">
         <v>251.367</v>
@@ -33345,6 +34549,12 @@
       </c>
       <c r="CS201">
         <v>0.004985097894305568</v>
+      </c>
+      <c r="CU201">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV201">
+        <v>411.409</v>
       </c>
     </row>
     <row r="202">
@@ -33490,7 +34700,7 @@
         <v>75.09999999999999</v>
       </c>
       <c r="AV202">
-        <v>43021</v>
+        <v>43.021</v>
       </c>
       <c r="AX202">
         <v>251.9656666666666</v>
@@ -33635,6 +34845,12 @@
       </c>
       <c r="CS202">
         <v>0.01041228186073351</v>
+      </c>
+      <c r="CU202">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV202">
+        <v>423.429</v>
       </c>
     </row>
     <row r="203">
@@ -33780,7 +34996,7 @@
         <v>1086.5</v>
       </c>
       <c r="AV203">
-        <v>1062344</v>
+        <v>1062.344</v>
       </c>
       <c r="AW203">
         <v>1078.1</v>
@@ -33928,6 +35144,12 @@
       </c>
       <c r="CS203">
         <v>-0.007866439229973432</v>
+      </c>
+      <c r="CU203">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV203">
+        <v>512.64</v>
       </c>
     </row>
     <row r="204">
@@ -34073,7 +35295,7 @@
         <v>1213.3</v>
       </c>
       <c r="AV204">
-        <v>731137</v>
+        <v>731.1369999999999</v>
       </c>
       <c r="AW204">
         <v>15.6</v>
@@ -34221,6 +35443,12 @@
       </c>
       <c r="CS204">
         <v>0.002391852213436962</v>
+      </c>
+      <c r="CU204">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV204">
+        <v>486.072</v>
       </c>
     </row>
     <row r="205">
@@ -34476,6 +35704,12 @@
       <c r="CT205">
         <v>2166.135947063508</v>
       </c>
+      <c r="CU205">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV205">
+        <v>504.62142385961</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
@@ -34730,6 +35964,12 @@
       <c r="CT206">
         <v>2181.761523846333</v>
       </c>
+      <c r="CU206">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV206">
+        <v>523.17084771922</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
@@ -34984,6 +36224,12 @@
       <c r="CT207">
         <v>2197.173239736037</v>
       </c>
+      <c r="CU207">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV207">
+        <v>541.72027157883</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
@@ -35238,6 +36484,12 @@
       <c r="CT208">
         <v>2213.151935667968</v>
       </c>
+      <c r="CU208">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV208">
+        <v>560.2696954384398</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
@@ -35492,6 +36744,12 @@
       <c r="CT209">
         <v>2240.089556756204</v>
       </c>
+      <c r="CU209">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV209">
+        <v>554.6929574085671</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
@@ -35746,6 +37004,12 @@
       <c r="CT210">
         <v>2266.527340175636</v>
       </c>
+      <c r="CU210">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV210">
+        <v>549.1162193786943</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
@@ -36000,6 +37264,12 @@
       <c r="CT211">
         <v>2292.910414994503</v>
       </c>
+      <c r="CU211">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV211">
+        <v>543.5394813488216</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
@@ -36254,6 +37524,12 @@
       <c r="CT212">
         <v>2319.537191761343</v>
       </c>
+      <c r="CU212">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV212">
+        <v>537.9627433189488</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
@@ -36508,6 +37784,12 @@
       <c r="CT213">
         <v>2347.411465429032</v>
       </c>
+      <c r="CU213">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV213">
+        <v>532.4407379612392</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
@@ -36762,6 +38044,12 @@
       <c r="CT214">
         <v>2375.315580151576</v>
       </c>
+      <c r="CU214">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV214">
+        <v>526.9187326035294</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
@@ -37016,6 +38304,12 @@
       <c r="CT215">
         <v>2402.983453189858</v>
       </c>
+      <c r="CU215">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV215">
+        <v>521.3967272458196</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
@@ -37270,6 +38564,12 @@
       <c r="CT216">
         <v>2431.041746695813</v>
       </c>
+      <c r="CU216">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV216">
+        <v>515.87472188811</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
@@ -37524,6 +38824,12 @@
       <c r="CT217">
         <v>2453.974615814305</v>
       </c>
+      <c r="CU217">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV217">
+        <v>521.6878529353728</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
@@ -37778,6 +39084,12 @@
       <c r="CT218">
         <v>2477.223302763335</v>
       </c>
+      <c r="CU218">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV218">
+        <v>527.5009839826356</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
@@ -38032,6 +39344,12 @@
       <c r="CT219">
         <v>2500.357599002092</v>
       </c>
+      <c r="CU219">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV219">
+        <v>533.3141150298984</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
@@ -38286,6 +39604,12 @@
       <c r="CT220">
         <v>2523.437186640282</v>
       </c>
+      <c r="CU220">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV220">
+        <v>539.1272460771612</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
@@ -38540,6 +39864,12 @@
       <c r="CT221">
         <v>2555.816164243317</v>
       </c>
+      <c r="CU221">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV221">
+        <v>546.4911361690445</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
@@ -38794,6 +40124,12 @@
       <c r="CT222">
         <v>2588.505986167749</v>
       </c>
+      <c r="CU222">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV222">
+        <v>553.8550262609276</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
@@ -39048,6 +40384,12 @@
       <c r="CT223">
         <v>2621.275384238458</v>
       </c>
+      <c r="CU223">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV223">
+        <v>561.2189163528109</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
@@ -39302,6 +40644,12 @@
       <c r="CT224">
         <v>2654.111924682588</v>
       </c>
+      <c r="CU224">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV224">
+        <v>568.5828064446941</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
@@ -39556,6 +40904,12 @@
       <c r="CT225">
         <v>2720.298142236426</v>
       </c>
+      <c r="CU225">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV225">
+        <v>576.2456411792966</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
@@ -39810,6 +41164,12 @@
       <c r="CT226">
         <v>2786.541555145401</v>
       </c>
+      <c r="CU226">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV226">
+        <v>583.9084759138992</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
@@ -40064,6 +41424,12 @@
       <c r="CT227">
         <v>2852.829729636657</v>
       </c>
+      <c r="CU227">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV227">
+        <v>591.5713106485017</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
@@ -40318,6 +41684,12 @@
       <c r="CT228">
         <v>2919.172612728479</v>
       </c>
+      <c r="CU228">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV228">
+        <v>599.2341453831042</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
@@ -40572,6 +41944,12 @@
       <c r="CT229">
         <v>2983.241523443722</v>
       </c>
+      <c r="CU229">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV229">
+        <v>607.193579074476</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
@@ -40826,6 +42204,12 @@
       <c r="CT230">
         <v>3047.380063286958</v>
       </c>
+      <c r="CU230">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV230">
+        <v>615.153012765848</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
@@ -41080,6 +42464,12 @@
       <c r="CT231">
         <v>3111.583258749044</v>
       </c>
+      <c r="CU231">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV231">
+        <v>623.1124464572199</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
@@ -41334,6 +42724,12 @@
       <c r="CT232">
         <v>3175.873490621121</v>
       </c>
+      <c r="CU232">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV232">
+        <v>631.0718801485918</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
@@ -41588,6 +42984,12 @@
       <c r="CT233">
         <v>3209.330105016054</v>
       </c>
+      <c r="CU233">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV233">
+        <v>639.3320829050884</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
@@ -41842,6 +43244,12 @@
       <c r="CT234">
         <v>3242.637514136717</v>
       </c>
+      <c r="CU234">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV234">
+        <v>647.5922856615852</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
@@ -42096,6 +43504,12 @@
       <c r="CT235">
         <v>3275.748469646257</v>
       </c>
+      <c r="CU235">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV235">
+        <v>655.8524884180816</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
@@ -42350,6 +43764,12 @@
       <c r="CT236">
         <v>3308.797256291519</v>
       </c>
+      <c r="CU236">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV236">
+        <v>664.1126911745782</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
@@ -42604,6 +44024,12 @@
       <c r="CT237">
         <v>3343.712208686781</v>
       </c>
+      <c r="CU237">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV237">
+        <v>672.8584509226929</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
@@ -42858,6 +44284,12 @@
       <c r="CT238">
         <v>3378.550071690336</v>
       </c>
+      <c r="CU238">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV238">
+        <v>681.6042106708076</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
@@ -43112,6 +44544,12 @@
       <c r="CT239">
         <v>3413.447616803599</v>
       </c>
+      <c r="CU239">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV239">
+        <v>690.3499704189223</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
@@ -43366,6 +44804,12 @@
       <c r="CT240">
         <v>3448.389923499144</v>
       </c>
+      <c r="CU240">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV240">
+        <v>699.0957301670371</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
@@ -43620,6 +45064,12 @@
       <c r="CT241">
         <v>3483.19172478154</v>
       </c>
+      <c r="CU241">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV241">
+        <v>708.6431932464548</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
@@ -43874,6 +45324,12 @@
       <c r="CT242">
         <v>3518.055694928216</v>
       </c>
+      <c r="CU242">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV242">
+        <v>718.1906563258725</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
@@ -44128,6 +45584,12 @@
       <c r="CT243">
         <v>3552.959453148031</v>
       </c>
+      <c r="CU243">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV243">
+        <v>727.7381194052901</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
@@ -44382,6 +45844,12 @@
       <c r="CT244">
         <v>3587.900512686412</v>
       </c>
+      <c r="CU244">
+        <v>0.629670798</v>
+      </c>
+      <c r="CV244">
+        <v>737.2855824847078</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
@@ -44548,6 +46016,9 @@
       </c>
       <c r="CS245">
         <v>0.007745763876292555</v>
+      </c>
+      <c r="CU245">
+        <v>0.629670798</v>
       </c>
     </row>
   </sheetData>
